--- a/WS_tags/tag_3038_list.xlsx
+++ b/WS_tags/tag_3038_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2334"/>
+  <dimension ref="A1:A2335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8262,3791 +8262,3796 @@
     </row>
     <row r="1577" spans="1:1">
       <c r="A1577">
-        <v>153939</v>
+        <v>153761</v>
       </c>
     </row>
     <row r="1578" spans="1:1">
       <c r="A1578">
-        <v>153969</v>
+        <v>153939</v>
       </c>
     </row>
     <row r="1579" spans="1:1">
       <c r="A1579">
-        <v>155375</v>
+        <v>153969</v>
       </c>
     </row>
     <row r="1580" spans="1:1">
       <c r="A1580">
-        <v>155989</v>
+        <v>155375</v>
       </c>
     </row>
     <row r="1581" spans="1:1">
       <c r="A1581">
-        <v>156030</v>
+        <v>155989</v>
       </c>
     </row>
     <row r="1582" spans="1:1">
       <c r="A1582">
-        <v>156502</v>
+        <v>156030</v>
       </c>
     </row>
     <row r="1583" spans="1:1">
       <c r="A1583">
-        <v>156667</v>
+        <v>156502</v>
       </c>
     </row>
     <row r="1584" spans="1:1">
       <c r="A1584">
-        <v>156960</v>
+        <v>156667</v>
       </c>
     </row>
     <row r="1585" spans="1:1">
       <c r="A1585">
-        <v>157042</v>
+        <v>156960</v>
       </c>
     </row>
     <row r="1586" spans="1:1">
       <c r="A1586">
-        <v>157620</v>
+        <v>157042</v>
       </c>
     </row>
     <row r="1587" spans="1:1">
       <c r="A1587">
-        <v>159407</v>
+        <v>157620</v>
       </c>
     </row>
     <row r="1588" spans="1:1">
       <c r="A1588">
-        <v>160122</v>
+        <v>159407</v>
       </c>
     </row>
     <row r="1589" spans="1:1">
       <c r="A1589">
-        <v>160280</v>
+        <v>160122</v>
       </c>
     </row>
     <row r="1590" spans="1:1">
       <c r="A1590">
-        <v>161069</v>
+        <v>160280</v>
       </c>
     </row>
     <row r="1591" spans="1:1">
       <c r="A1591">
-        <v>161307</v>
+        <v>161069</v>
       </c>
     </row>
     <row r="1592" spans="1:1">
       <c r="A1592">
-        <v>162072</v>
+        <v>161307</v>
       </c>
     </row>
     <row r="1593" spans="1:1">
       <c r="A1593">
-        <v>162145</v>
+        <v>162072</v>
       </c>
     </row>
     <row r="1594" spans="1:1">
       <c r="A1594">
-        <v>162618</v>
+        <v>162145</v>
       </c>
     </row>
     <row r="1595" spans="1:1">
       <c r="A1595">
-        <v>162811</v>
+        <v>162618</v>
       </c>
     </row>
     <row r="1596" spans="1:1">
       <c r="A1596">
-        <v>164110</v>
+        <v>162811</v>
       </c>
     </row>
     <row r="1597" spans="1:1">
       <c r="A1597">
-        <v>164622</v>
+        <v>164110</v>
       </c>
     </row>
     <row r="1598" spans="1:1">
       <c r="A1598">
-        <v>164683</v>
+        <v>164622</v>
       </c>
     </row>
     <row r="1599" spans="1:1">
       <c r="A1599">
-        <v>164812</v>
+        <v>164683</v>
       </c>
     </row>
     <row r="1600" spans="1:1">
       <c r="A1600">
-        <v>165109</v>
+        <v>164812</v>
       </c>
     </row>
     <row r="1601" spans="1:1">
       <c r="A1601">
-        <v>165460</v>
+        <v>165109</v>
       </c>
     </row>
     <row r="1602" spans="1:1">
       <c r="A1602">
-        <v>165632</v>
+        <v>165460</v>
       </c>
     </row>
     <row r="1603" spans="1:1">
       <c r="A1603">
-        <v>165689</v>
+        <v>165632</v>
       </c>
     </row>
     <row r="1604" spans="1:1">
       <c r="A1604">
-        <v>166210</v>
+        <v>165689</v>
       </c>
     </row>
     <row r="1605" spans="1:1">
       <c r="A1605">
-        <v>166247</v>
+        <v>166210</v>
       </c>
     </row>
     <row r="1606" spans="1:1">
       <c r="A1606">
-        <v>166538</v>
+        <v>166247</v>
       </c>
     </row>
     <row r="1607" spans="1:1">
       <c r="A1607">
-        <v>167236</v>
+        <v>166538</v>
       </c>
     </row>
     <row r="1608" spans="1:1">
       <c r="A1608">
-        <v>175265</v>
+        <v>167236</v>
       </c>
     </row>
     <row r="1609" spans="1:1">
       <c r="A1609">
-        <v>175504</v>
+        <v>175265</v>
       </c>
     </row>
     <row r="1610" spans="1:1">
       <c r="A1610">
-        <v>175757</v>
+        <v>175504</v>
       </c>
     </row>
     <row r="1611" spans="1:1">
       <c r="A1611">
-        <v>176107</v>
+        <v>175757</v>
       </c>
     </row>
     <row r="1612" spans="1:1">
       <c r="A1612">
-        <v>176556</v>
+        <v>176107</v>
       </c>
     </row>
     <row r="1613" spans="1:1">
       <c r="A1613">
-        <v>179769</v>
+        <v>176556</v>
       </c>
     </row>
     <row r="1614" spans="1:1">
       <c r="A1614">
-        <v>179976</v>
+        <v>179769</v>
       </c>
     </row>
     <row r="1615" spans="1:1">
       <c r="A1615">
-        <v>180166</v>
+        <v>179976</v>
       </c>
     </row>
     <row r="1616" spans="1:1">
       <c r="A1616">
-        <v>180601</v>
+        <v>180166</v>
       </c>
     </row>
     <row r="1617" spans="1:1">
       <c r="A1617">
-        <v>180861</v>
+        <v>180601</v>
       </c>
     </row>
     <row r="1618" spans="1:1">
       <c r="A1618">
-        <v>181309</v>
+        <v>180861</v>
       </c>
     </row>
     <row r="1619" spans="1:1">
       <c r="A1619">
-        <v>181875</v>
+        <v>181309</v>
       </c>
     </row>
     <row r="1620" spans="1:1">
       <c r="A1620">
-        <v>182272</v>
+        <v>181875</v>
       </c>
     </row>
     <row r="1621" spans="1:1">
       <c r="A1621">
-        <v>182305</v>
+        <v>182272</v>
       </c>
     </row>
     <row r="1622" spans="1:1">
       <c r="A1622">
-        <v>182420</v>
+        <v>182305</v>
       </c>
     </row>
     <row r="1623" spans="1:1">
       <c r="A1623">
-        <v>182830</v>
+        <v>182420</v>
       </c>
     </row>
     <row r="1624" spans="1:1">
       <c r="A1624">
-        <v>183600</v>
+        <v>182830</v>
       </c>
     </row>
     <row r="1625" spans="1:1">
       <c r="A1625">
-        <v>183945</v>
+        <v>183600</v>
       </c>
     </row>
     <row r="1626" spans="1:1">
       <c r="A1626">
-        <v>184033</v>
+        <v>183945</v>
       </c>
     </row>
     <row r="1627" spans="1:1">
       <c r="A1627">
-        <v>184194</v>
+        <v>184033</v>
       </c>
     </row>
     <row r="1628" spans="1:1">
       <c r="A1628">
-        <v>184258</v>
+        <v>184194</v>
       </c>
     </row>
     <row r="1629" spans="1:1">
       <c r="A1629">
-        <v>184888</v>
+        <v>184258</v>
       </c>
     </row>
     <row r="1630" spans="1:1">
       <c r="A1630">
-        <v>184908</v>
+        <v>184888</v>
       </c>
     </row>
     <row r="1631" spans="1:1">
       <c r="A1631">
-        <v>186458</v>
+        <v>184908</v>
       </c>
     </row>
     <row r="1632" spans="1:1">
       <c r="A1632">
-        <v>187305</v>
+        <v>186458</v>
       </c>
     </row>
     <row r="1633" spans="1:1">
       <c r="A1633">
-        <v>187458</v>
+        <v>187305</v>
       </c>
     </row>
     <row r="1634" spans="1:1">
       <c r="A1634">
-        <v>188186</v>
+        <v>187458</v>
       </c>
     </row>
     <row r="1635" spans="1:1">
       <c r="A1635">
-        <v>188914</v>
+        <v>188186</v>
       </c>
     </row>
     <row r="1636" spans="1:1">
       <c r="A1636">
-        <v>189275</v>
+        <v>188914</v>
       </c>
     </row>
     <row r="1637" spans="1:1">
       <c r="A1637">
-        <v>191567</v>
+        <v>189275</v>
       </c>
     </row>
     <row r="1638" spans="1:1">
       <c r="A1638">
-        <v>191736</v>
+        <v>191567</v>
       </c>
     </row>
     <row r="1639" spans="1:1">
       <c r="A1639">
-        <v>191865</v>
+        <v>191736</v>
       </c>
     </row>
     <row r="1640" spans="1:1">
       <c r="A1640">
-        <v>192419</v>
+        <v>191865</v>
       </c>
     </row>
     <row r="1641" spans="1:1">
       <c r="A1641">
-        <v>193243</v>
+        <v>192419</v>
       </c>
     </row>
     <row r="1642" spans="1:1">
       <c r="A1642">
-        <v>194126</v>
+        <v>193243</v>
       </c>
     </row>
     <row r="1643" spans="1:1">
       <c r="A1643">
-        <v>195837</v>
+        <v>194126</v>
       </c>
     </row>
     <row r="1644" spans="1:1">
       <c r="A1644">
-        <v>196357</v>
+        <v>195837</v>
       </c>
     </row>
     <row r="1645" spans="1:1">
       <c r="A1645">
-        <v>196641</v>
+        <v>196357</v>
       </c>
     </row>
     <row r="1646" spans="1:1">
       <c r="A1646">
-        <v>197420</v>
+        <v>196641</v>
       </c>
     </row>
     <row r="1647" spans="1:1">
       <c r="A1647">
-        <v>197545</v>
+        <v>197420</v>
       </c>
     </row>
     <row r="1648" spans="1:1">
       <c r="A1648">
-        <v>197976</v>
+        <v>197545</v>
       </c>
     </row>
     <row r="1649" spans="1:1">
       <c r="A1649">
-        <v>198387</v>
+        <v>197976</v>
       </c>
     </row>
     <row r="1650" spans="1:1">
       <c r="A1650">
-        <v>198932</v>
+        <v>198387</v>
       </c>
     </row>
     <row r="1651" spans="1:1">
       <c r="A1651">
-        <v>198957</v>
+        <v>198932</v>
       </c>
     </row>
     <row r="1652" spans="1:1">
       <c r="A1652">
-        <v>199661</v>
+        <v>198957</v>
       </c>
     </row>
     <row r="1653" spans="1:1">
       <c r="A1653">
-        <v>199700</v>
+        <v>199661</v>
       </c>
     </row>
     <row r="1654" spans="1:1">
       <c r="A1654">
-        <v>199996</v>
+        <v>199700</v>
       </c>
     </row>
     <row r="1655" spans="1:1">
       <c r="A1655">
-        <v>200281</v>
+        <v>199996</v>
       </c>
     </row>
     <row r="1656" spans="1:1">
       <c r="A1656">
-        <v>200434</v>
+        <v>200281</v>
       </c>
     </row>
     <row r="1657" spans="1:1">
       <c r="A1657">
-        <v>200970</v>
+        <v>200434</v>
       </c>
     </row>
     <row r="1658" spans="1:1">
       <c r="A1658">
-        <v>201734</v>
+        <v>200970</v>
       </c>
     </row>
     <row r="1659" spans="1:1">
       <c r="A1659">
-        <v>201840</v>
+        <v>201734</v>
       </c>
     </row>
     <row r="1660" spans="1:1">
       <c r="A1660">
-        <v>202629</v>
+        <v>201840</v>
       </c>
     </row>
     <row r="1661" spans="1:1">
       <c r="A1661">
-        <v>203104</v>
+        <v>202629</v>
       </c>
     </row>
     <row r="1662" spans="1:1">
       <c r="A1662">
-        <v>204575</v>
+        <v>203104</v>
       </c>
     </row>
     <row r="1663" spans="1:1">
       <c r="A1663">
-        <v>204769</v>
+        <v>204575</v>
       </c>
     </row>
     <row r="1664" spans="1:1">
       <c r="A1664">
-        <v>205099</v>
+        <v>204769</v>
       </c>
     </row>
     <row r="1665" spans="1:1">
       <c r="A1665">
-        <v>205949</v>
+        <v>205099</v>
       </c>
     </row>
     <row r="1666" spans="1:1">
       <c r="A1666">
-        <v>207342</v>
+        <v>205949</v>
       </c>
     </row>
     <row r="1667" spans="1:1">
       <c r="A1667">
-        <v>207553</v>
+        <v>207342</v>
       </c>
     </row>
     <row r="1668" spans="1:1">
       <c r="A1668">
-        <v>209133</v>
+        <v>207553</v>
       </c>
     </row>
     <row r="1669" spans="1:1">
       <c r="A1669">
-        <v>209917</v>
+        <v>209133</v>
       </c>
     </row>
     <row r="1670" spans="1:1">
       <c r="A1670">
-        <v>210660</v>
+        <v>209917</v>
       </c>
     </row>
     <row r="1671" spans="1:1">
       <c r="A1671">
-        <v>211210</v>
+        <v>210660</v>
       </c>
     </row>
     <row r="1672" spans="1:1">
       <c r="A1672">
-        <v>212494</v>
+        <v>211210</v>
       </c>
     </row>
     <row r="1673" spans="1:1">
       <c r="A1673">
-        <v>212497</v>
+        <v>212494</v>
       </c>
     </row>
     <row r="1674" spans="1:1">
       <c r="A1674">
-        <v>213431</v>
+        <v>212497</v>
       </c>
     </row>
     <row r="1675" spans="1:1">
       <c r="A1675">
-        <v>214176</v>
+        <v>213431</v>
       </c>
     </row>
     <row r="1676" spans="1:1">
       <c r="A1676">
-        <v>214551</v>
+        <v>214176</v>
       </c>
     </row>
     <row r="1677" spans="1:1">
       <c r="A1677">
-        <v>214693</v>
+        <v>214551</v>
       </c>
     </row>
     <row r="1678" spans="1:1">
       <c r="A1678">
-        <v>215068</v>
+        <v>214693</v>
       </c>
     </row>
     <row r="1679" spans="1:1">
       <c r="A1679">
-        <v>215441</v>
+        <v>215068</v>
       </c>
     </row>
     <row r="1680" spans="1:1">
       <c r="A1680">
-        <v>215884</v>
+        <v>215441</v>
       </c>
     </row>
     <row r="1681" spans="1:1">
       <c r="A1681">
-        <v>215890</v>
+        <v>215884</v>
       </c>
     </row>
     <row r="1682" spans="1:1">
       <c r="A1682">
-        <v>216380</v>
+        <v>215890</v>
       </c>
     </row>
     <row r="1683" spans="1:1">
       <c r="A1683">
-        <v>216545</v>
+        <v>216380</v>
       </c>
     </row>
     <row r="1684" spans="1:1">
       <c r="A1684">
-        <v>216582</v>
+        <v>216545</v>
       </c>
     </row>
     <row r="1685" spans="1:1">
       <c r="A1685">
-        <v>218098</v>
+        <v>216582</v>
       </c>
     </row>
     <row r="1686" spans="1:1">
       <c r="A1686">
-        <v>220043</v>
+        <v>218098</v>
       </c>
     </row>
     <row r="1687" spans="1:1">
       <c r="A1687">
-        <v>221535</v>
+        <v>220043</v>
       </c>
     </row>
     <row r="1688" spans="1:1">
       <c r="A1688">
-        <v>221963</v>
+        <v>221535</v>
       </c>
     </row>
     <row r="1689" spans="1:1">
       <c r="A1689">
-        <v>222105</v>
+        <v>221963</v>
       </c>
     </row>
     <row r="1690" spans="1:1">
       <c r="A1690">
-        <v>222947</v>
+        <v>222105</v>
       </c>
     </row>
     <row r="1691" spans="1:1">
       <c r="A1691">
-        <v>223161</v>
+        <v>222947</v>
       </c>
     </row>
     <row r="1692" spans="1:1">
       <c r="A1692">
-        <v>223725</v>
+        <v>223161</v>
       </c>
     </row>
     <row r="1693" spans="1:1">
       <c r="A1693">
-        <v>224216</v>
+        <v>223725</v>
       </c>
     </row>
     <row r="1694" spans="1:1">
       <c r="A1694">
-        <v>224809</v>
+        <v>224216</v>
       </c>
     </row>
     <row r="1695" spans="1:1">
       <c r="A1695">
-        <v>225569</v>
+        <v>224809</v>
       </c>
     </row>
     <row r="1696" spans="1:1">
       <c r="A1696">
-        <v>225763</v>
+        <v>225569</v>
       </c>
     </row>
     <row r="1697" spans="1:1">
       <c r="A1697">
-        <v>227131</v>
+        <v>225763</v>
       </c>
     </row>
     <row r="1698" spans="1:1">
       <c r="A1698">
-        <v>227181</v>
+        <v>227131</v>
       </c>
     </row>
     <row r="1699" spans="1:1">
       <c r="A1699">
-        <v>227319</v>
+        <v>227181</v>
       </c>
     </row>
     <row r="1700" spans="1:1">
       <c r="A1700">
-        <v>229434</v>
+        <v>227319</v>
       </c>
     </row>
     <row r="1701" spans="1:1">
       <c r="A1701">
-        <v>230143</v>
+        <v>229434</v>
       </c>
     </row>
     <row r="1702" spans="1:1">
       <c r="A1702">
-        <v>232283</v>
+        <v>230143</v>
       </c>
     </row>
     <row r="1703" spans="1:1">
       <c r="A1703">
-        <v>233153</v>
+        <v>232283</v>
       </c>
     </row>
     <row r="1704" spans="1:1">
       <c r="A1704">
-        <v>234494</v>
+        <v>233153</v>
       </c>
     </row>
     <row r="1705" spans="1:1">
       <c r="A1705">
-        <v>234662</v>
+        <v>234494</v>
       </c>
     </row>
     <row r="1706" spans="1:1">
       <c r="A1706">
-        <v>237189</v>
+        <v>234662</v>
       </c>
     </row>
     <row r="1707" spans="1:1">
       <c r="A1707">
-        <v>237631</v>
+        <v>237189</v>
       </c>
     </row>
     <row r="1708" spans="1:1">
       <c r="A1708">
-        <v>237906</v>
+        <v>237631</v>
       </c>
     </row>
     <row r="1709" spans="1:1">
       <c r="A1709">
-        <v>238268</v>
+        <v>237906</v>
       </c>
     </row>
     <row r="1710" spans="1:1">
       <c r="A1710">
-        <v>238393</v>
+        <v>238268</v>
       </c>
     </row>
     <row r="1711" spans="1:1">
       <c r="A1711">
-        <v>239315</v>
+        <v>238393</v>
       </c>
     </row>
     <row r="1712" spans="1:1">
       <c r="A1712">
-        <v>240453</v>
+        <v>239315</v>
       </c>
     </row>
     <row r="1713" spans="1:1">
       <c r="A1713">
-        <v>240689</v>
+        <v>240453</v>
       </c>
     </row>
     <row r="1714" spans="1:1">
       <c r="A1714">
-        <v>240718</v>
+        <v>240689</v>
       </c>
     </row>
     <row r="1715" spans="1:1">
       <c r="A1715">
-        <v>241346</v>
+        <v>240718</v>
       </c>
     </row>
     <row r="1716" spans="1:1">
       <c r="A1716">
-        <v>241822</v>
+        <v>241346</v>
       </c>
     </row>
     <row r="1717" spans="1:1">
       <c r="A1717">
-        <v>241907</v>
+        <v>241822</v>
       </c>
     </row>
     <row r="1718" spans="1:1">
       <c r="A1718">
-        <v>242498</v>
+        <v>241907</v>
       </c>
     </row>
     <row r="1719" spans="1:1">
       <c r="A1719">
-        <v>243346</v>
+        <v>242498</v>
       </c>
     </row>
     <row r="1720" spans="1:1">
       <c r="A1720">
-        <v>243426</v>
+        <v>243346</v>
       </c>
     </row>
     <row r="1721" spans="1:1">
       <c r="A1721">
-        <v>244849</v>
+        <v>243426</v>
       </c>
     </row>
     <row r="1722" spans="1:1">
       <c r="A1722">
-        <v>245597</v>
+        <v>244849</v>
       </c>
     </row>
     <row r="1723" spans="1:1">
       <c r="A1723">
-        <v>245893</v>
+        <v>245597</v>
       </c>
     </row>
     <row r="1724" spans="1:1">
       <c r="A1724">
-        <v>246679</v>
+        <v>245893</v>
       </c>
     </row>
     <row r="1725" spans="1:1">
       <c r="A1725">
-        <v>246793</v>
+        <v>246679</v>
       </c>
     </row>
     <row r="1726" spans="1:1">
       <c r="A1726">
-        <v>248282</v>
+        <v>246793</v>
       </c>
     </row>
     <row r="1727" spans="1:1">
       <c r="A1727">
-        <v>250173</v>
+        <v>248282</v>
       </c>
     </row>
     <row r="1728" spans="1:1">
       <c r="A1728">
-        <v>250673</v>
+        <v>250173</v>
       </c>
     </row>
     <row r="1729" spans="1:1">
       <c r="A1729">
-        <v>250925</v>
+        <v>250673</v>
       </c>
     </row>
     <row r="1730" spans="1:1">
       <c r="A1730">
-        <v>252237</v>
+        <v>250925</v>
       </c>
     </row>
     <row r="1731" spans="1:1">
       <c r="A1731">
-        <v>253374</v>
+        <v>252237</v>
       </c>
     </row>
     <row r="1732" spans="1:1">
       <c r="A1732">
-        <v>254019</v>
+        <v>253374</v>
       </c>
     </row>
     <row r="1733" spans="1:1">
       <c r="A1733">
-        <v>254285</v>
+        <v>254019</v>
       </c>
     </row>
     <row r="1734" spans="1:1">
       <c r="A1734">
-        <v>255957</v>
+        <v>254285</v>
       </c>
     </row>
     <row r="1735" spans="1:1">
       <c r="A1735">
-        <v>256437</v>
+        <v>255957</v>
       </c>
     </row>
     <row r="1736" spans="1:1">
       <c r="A1736">
-        <v>258709</v>
+        <v>256437</v>
       </c>
     </row>
     <row r="1737" spans="1:1">
       <c r="A1737">
-        <v>259834</v>
+        <v>258709</v>
       </c>
     </row>
     <row r="1738" spans="1:1">
       <c r="A1738">
-        <v>259931</v>
+        <v>259834</v>
       </c>
     </row>
     <row r="1739" spans="1:1">
       <c r="A1739">
-        <v>260915</v>
+        <v>259931</v>
       </c>
     </row>
     <row r="1740" spans="1:1">
       <c r="A1740">
-        <v>261000</v>
+        <v>260915</v>
       </c>
     </row>
     <row r="1741" spans="1:1">
       <c r="A1741">
-        <v>261245</v>
+        <v>261000</v>
       </c>
     </row>
     <row r="1742" spans="1:1">
       <c r="A1742">
-        <v>261578</v>
+        <v>261245</v>
       </c>
     </row>
     <row r="1743" spans="1:1">
       <c r="A1743">
-        <v>263077</v>
+        <v>261578</v>
       </c>
     </row>
     <row r="1744" spans="1:1">
       <c r="A1744">
-        <v>263810</v>
+        <v>263077</v>
       </c>
     </row>
     <row r="1745" spans="1:1">
       <c r="A1745">
-        <v>264446</v>
+        <v>263810</v>
       </c>
     </row>
     <row r="1746" spans="1:1">
       <c r="A1746">
-        <v>264590</v>
+        <v>264446</v>
       </c>
     </row>
     <row r="1747" spans="1:1">
       <c r="A1747">
-        <v>265269</v>
+        <v>264590</v>
       </c>
     </row>
     <row r="1748" spans="1:1">
       <c r="A1748">
-        <v>270079</v>
+        <v>265269</v>
       </c>
     </row>
     <row r="1749" spans="1:1">
       <c r="A1749">
-        <v>270396</v>
+        <v>270079</v>
       </c>
     </row>
     <row r="1750" spans="1:1">
       <c r="A1750">
-        <v>273711</v>
+        <v>270396</v>
       </c>
     </row>
     <row r="1751" spans="1:1">
       <c r="A1751">
-        <v>273807</v>
+        <v>273711</v>
       </c>
     </row>
     <row r="1752" spans="1:1">
       <c r="A1752">
-        <v>274452</v>
+        <v>273807</v>
       </c>
     </row>
     <row r="1753" spans="1:1">
       <c r="A1753">
-        <v>274530</v>
+        <v>274452</v>
       </c>
     </row>
     <row r="1754" spans="1:1">
       <c r="A1754">
-        <v>275512</v>
+        <v>274530</v>
       </c>
     </row>
     <row r="1755" spans="1:1">
       <c r="A1755">
-        <v>276675</v>
+        <v>275512</v>
       </c>
     </row>
     <row r="1756" spans="1:1">
       <c r="A1756">
-        <v>276711</v>
+        <v>276675</v>
       </c>
     </row>
     <row r="1757" spans="1:1">
       <c r="A1757">
-        <v>278233</v>
+        <v>276711</v>
       </c>
     </row>
     <row r="1758" spans="1:1">
       <c r="A1758">
-        <v>280130</v>
+        <v>278233</v>
       </c>
     </row>
     <row r="1759" spans="1:1">
       <c r="A1759">
-        <v>280139</v>
+        <v>280130</v>
       </c>
     </row>
     <row r="1760" spans="1:1">
       <c r="A1760">
-        <v>280726</v>
+        <v>280139</v>
       </c>
     </row>
     <row r="1761" spans="1:1">
       <c r="A1761">
-        <v>282020</v>
+        <v>280726</v>
       </c>
     </row>
     <row r="1762" spans="1:1">
       <c r="A1762">
-        <v>282851</v>
+        <v>282020</v>
       </c>
     </row>
     <row r="1763" spans="1:1">
       <c r="A1763">
-        <v>283749</v>
+        <v>282851</v>
       </c>
     </row>
     <row r="1764" spans="1:1">
       <c r="A1764">
-        <v>284820</v>
+        <v>283749</v>
       </c>
     </row>
     <row r="1765" spans="1:1">
       <c r="A1765">
-        <v>285925</v>
+        <v>284820</v>
       </c>
     </row>
     <row r="1766" spans="1:1">
       <c r="A1766">
-        <v>286520</v>
+        <v>285925</v>
       </c>
     </row>
     <row r="1767" spans="1:1">
       <c r="A1767">
-        <v>286762</v>
+        <v>286520</v>
       </c>
     </row>
     <row r="1768" spans="1:1">
       <c r="A1768">
-        <v>288736</v>
+        <v>286762</v>
       </c>
     </row>
     <row r="1769" spans="1:1">
       <c r="A1769">
-        <v>289318</v>
+        <v>288736</v>
       </c>
     </row>
     <row r="1770" spans="1:1">
       <c r="A1770">
-        <v>289364</v>
+        <v>289318</v>
       </c>
     </row>
     <row r="1771" spans="1:1">
       <c r="A1771">
-        <v>290374</v>
+        <v>289364</v>
       </c>
     </row>
     <row r="1772" spans="1:1">
       <c r="A1772">
-        <v>290376</v>
+        <v>290374</v>
       </c>
     </row>
     <row r="1773" spans="1:1">
       <c r="A1773">
-        <v>291731</v>
+        <v>290376</v>
       </c>
     </row>
     <row r="1774" spans="1:1">
       <c r="A1774">
-        <v>291892</v>
+        <v>291731</v>
       </c>
     </row>
     <row r="1775" spans="1:1">
       <c r="A1775">
-        <v>293053</v>
+        <v>291892</v>
       </c>
     </row>
     <row r="1776" spans="1:1">
       <c r="A1776">
-        <v>294362</v>
+        <v>293053</v>
       </c>
     </row>
     <row r="1777" spans="1:1">
       <c r="A1777">
-        <v>294911</v>
+        <v>294362</v>
       </c>
     </row>
     <row r="1778" spans="1:1">
       <c r="A1778">
-        <v>297292</v>
+        <v>294911</v>
       </c>
     </row>
     <row r="1779" spans="1:1">
       <c r="A1779">
-        <v>297314</v>
+        <v>297292</v>
       </c>
     </row>
     <row r="1780" spans="1:1">
       <c r="A1780">
-        <v>297321</v>
+        <v>297314</v>
       </c>
     </row>
     <row r="1781" spans="1:1">
       <c r="A1781">
-        <v>298455</v>
+        <v>297321</v>
       </c>
     </row>
     <row r="1782" spans="1:1">
       <c r="A1782">
-        <v>298586</v>
+        <v>298455</v>
       </c>
     </row>
     <row r="1783" spans="1:1">
       <c r="A1783">
-        <v>299321</v>
+        <v>298586</v>
       </c>
     </row>
     <row r="1784" spans="1:1">
       <c r="A1784">
-        <v>299600</v>
+        <v>299321</v>
       </c>
     </row>
     <row r="1785" spans="1:1">
       <c r="A1785">
-        <v>301031</v>
+        <v>299600</v>
       </c>
     </row>
     <row r="1786" spans="1:1">
       <c r="A1786">
-        <v>301081</v>
+        <v>301031</v>
       </c>
     </row>
     <row r="1787" spans="1:1">
       <c r="A1787">
-        <v>301155</v>
+        <v>301081</v>
       </c>
     </row>
     <row r="1788" spans="1:1">
       <c r="A1788">
-        <v>302005</v>
+        <v>301155</v>
       </c>
     </row>
     <row r="1789" spans="1:1">
       <c r="A1789">
-        <v>302448</v>
+        <v>302005</v>
       </c>
     </row>
     <row r="1790" spans="1:1">
       <c r="A1790">
-        <v>302676</v>
+        <v>302448</v>
       </c>
     </row>
     <row r="1791" spans="1:1">
       <c r="A1791">
-        <v>303722</v>
+        <v>302676</v>
       </c>
     </row>
     <row r="1792" spans="1:1">
       <c r="A1792">
-        <v>305174</v>
+        <v>303722</v>
       </c>
     </row>
     <row r="1793" spans="1:1">
       <c r="A1793">
-        <v>306181</v>
+        <v>305174</v>
       </c>
     </row>
     <row r="1794" spans="1:1">
       <c r="A1794">
-        <v>306312</v>
+        <v>306181</v>
       </c>
     </row>
     <row r="1795" spans="1:1">
       <c r="A1795">
-        <v>306475</v>
+        <v>306312</v>
       </c>
     </row>
     <row r="1796" spans="1:1">
       <c r="A1796">
-        <v>306604</v>
+        <v>306475</v>
       </c>
     </row>
     <row r="1797" spans="1:1">
       <c r="A1797">
-        <v>306681</v>
+        <v>306604</v>
       </c>
     </row>
     <row r="1798" spans="1:1">
       <c r="A1798">
-        <v>309724</v>
+        <v>306681</v>
       </c>
     </row>
     <row r="1799" spans="1:1">
       <c r="A1799">
-        <v>310090</v>
+        <v>309724</v>
       </c>
     </row>
     <row r="1800" spans="1:1">
       <c r="A1800">
-        <v>310094</v>
+        <v>310090</v>
       </c>
     </row>
     <row r="1801" spans="1:1">
       <c r="A1801">
-        <v>310311</v>
+        <v>310094</v>
       </c>
     </row>
     <row r="1802" spans="1:1">
       <c r="A1802">
-        <v>310342</v>
+        <v>310311</v>
       </c>
     </row>
     <row r="1803" spans="1:1">
       <c r="A1803">
-        <v>310665</v>
+        <v>310342</v>
       </c>
     </row>
     <row r="1804" spans="1:1">
       <c r="A1804">
-        <v>311781</v>
+        <v>310665</v>
       </c>
     </row>
     <row r="1805" spans="1:1">
       <c r="A1805">
-        <v>311922</v>
+        <v>311781</v>
       </c>
     </row>
     <row r="1806" spans="1:1">
       <c r="A1806">
-        <v>312377</v>
+        <v>311922</v>
       </c>
     </row>
     <row r="1807" spans="1:1">
       <c r="A1807">
-        <v>313861</v>
+        <v>312377</v>
       </c>
     </row>
     <row r="1808" spans="1:1">
       <c r="A1808">
-        <v>315247</v>
+        <v>313861</v>
       </c>
     </row>
     <row r="1809" spans="1:1">
       <c r="A1809">
-        <v>315523</v>
+        <v>315247</v>
       </c>
     </row>
     <row r="1810" spans="1:1">
       <c r="A1810">
-        <v>315945</v>
+        <v>315523</v>
       </c>
     </row>
     <row r="1811" spans="1:1">
       <c r="A1811">
-        <v>318485</v>
+        <v>315945</v>
       </c>
     </row>
     <row r="1812" spans="1:1">
       <c r="A1812">
-        <v>318845</v>
+        <v>318485</v>
       </c>
     </row>
     <row r="1813" spans="1:1">
       <c r="A1813">
-        <v>319287</v>
+        <v>318845</v>
       </c>
     </row>
     <row r="1814" spans="1:1">
       <c r="A1814">
-        <v>320368</v>
+        <v>319287</v>
       </c>
     </row>
     <row r="1815" spans="1:1">
       <c r="A1815">
-        <v>321954</v>
+        <v>320368</v>
       </c>
     </row>
     <row r="1816" spans="1:1">
       <c r="A1816">
-        <v>323701</v>
+        <v>321954</v>
       </c>
     </row>
     <row r="1817" spans="1:1">
       <c r="A1817">
-        <v>323908</v>
+        <v>323701</v>
       </c>
     </row>
     <row r="1818" spans="1:1">
       <c r="A1818">
-        <v>326197</v>
+        <v>323908</v>
       </c>
     </row>
     <row r="1819" spans="1:1">
       <c r="A1819">
-        <v>326275</v>
+        <v>326197</v>
       </c>
     </row>
     <row r="1820" spans="1:1">
       <c r="A1820">
-        <v>328875</v>
+        <v>326275</v>
       </c>
     </row>
     <row r="1821" spans="1:1">
       <c r="A1821">
-        <v>329371</v>
+        <v>328875</v>
       </c>
     </row>
     <row r="1822" spans="1:1">
       <c r="A1822">
-        <v>329388</v>
+        <v>329371</v>
       </c>
     </row>
     <row r="1823" spans="1:1">
       <c r="A1823">
-        <v>332031</v>
+        <v>329388</v>
       </c>
     </row>
     <row r="1824" spans="1:1">
       <c r="A1824">
-        <v>332313</v>
+        <v>332031</v>
       </c>
     </row>
     <row r="1825" spans="1:1">
       <c r="A1825">
-        <v>333637</v>
+        <v>332313</v>
       </c>
     </row>
     <row r="1826" spans="1:1">
       <c r="A1826">
-        <v>334137</v>
+        <v>333637</v>
       </c>
     </row>
     <row r="1827" spans="1:1">
       <c r="A1827">
-        <v>335769</v>
+        <v>334137</v>
       </c>
     </row>
     <row r="1828" spans="1:1">
       <c r="A1828">
-        <v>336829</v>
+        <v>335769</v>
       </c>
     </row>
     <row r="1829" spans="1:1">
       <c r="A1829">
-        <v>338746</v>
+        <v>336829</v>
       </c>
     </row>
     <row r="1830" spans="1:1">
       <c r="A1830">
-        <v>339100</v>
+        <v>338746</v>
       </c>
     </row>
     <row r="1831" spans="1:1">
       <c r="A1831">
-        <v>339270</v>
+        <v>339100</v>
       </c>
     </row>
     <row r="1832" spans="1:1">
       <c r="A1832">
-        <v>340168</v>
+        <v>339270</v>
       </c>
     </row>
     <row r="1833" spans="1:1">
       <c r="A1833">
-        <v>341087</v>
+        <v>340168</v>
       </c>
     </row>
     <row r="1834" spans="1:1">
       <c r="A1834">
-        <v>341500</v>
+        <v>341087</v>
       </c>
     </row>
     <row r="1835" spans="1:1">
       <c r="A1835">
-        <v>341946</v>
+        <v>341500</v>
       </c>
     </row>
     <row r="1836" spans="1:1">
       <c r="A1836">
-        <v>347328</v>
+        <v>341946</v>
       </c>
     </row>
     <row r="1837" spans="1:1">
       <c r="A1837">
-        <v>347661</v>
+        <v>347328</v>
       </c>
     </row>
     <row r="1838" spans="1:1">
       <c r="A1838">
-        <v>348998</v>
+        <v>347661</v>
       </c>
     </row>
     <row r="1839" spans="1:1">
       <c r="A1839">
-        <v>349553</v>
+        <v>348998</v>
       </c>
     </row>
     <row r="1840" spans="1:1">
       <c r="A1840">
-        <v>349634</v>
+        <v>349553</v>
       </c>
     </row>
     <row r="1841" spans="1:1">
       <c r="A1841">
-        <v>349763</v>
+        <v>349634</v>
       </c>
     </row>
     <row r="1842" spans="1:1">
       <c r="A1842">
-        <v>350496</v>
+        <v>349763</v>
       </c>
     </row>
     <row r="1843" spans="1:1">
       <c r="A1843">
-        <v>351077</v>
+        <v>350496</v>
       </c>
     </row>
     <row r="1844" spans="1:1">
       <c r="A1844">
-        <v>351431</v>
+        <v>351077</v>
       </c>
     </row>
     <row r="1845" spans="1:1">
       <c r="A1845">
-        <v>351557</v>
+        <v>351431</v>
       </c>
     </row>
     <row r="1846" spans="1:1">
       <c r="A1846">
-        <v>352432</v>
+        <v>351557</v>
       </c>
     </row>
     <row r="1847" spans="1:1">
       <c r="A1847">
-        <v>352783</v>
+        <v>352432</v>
       </c>
     </row>
     <row r="1848" spans="1:1">
       <c r="A1848">
-        <v>354330</v>
+        <v>352783</v>
       </c>
     </row>
     <row r="1849" spans="1:1">
       <c r="A1849">
-        <v>355007</v>
+        <v>354330</v>
       </c>
     </row>
     <row r="1850" spans="1:1">
       <c r="A1850">
-        <v>355211</v>
+        <v>355007</v>
       </c>
     </row>
     <row r="1851" spans="1:1">
       <c r="A1851">
-        <v>356419</v>
+        <v>355211</v>
       </c>
     </row>
     <row r="1852" spans="1:1">
       <c r="A1852">
-        <v>359213</v>
+        <v>356419</v>
       </c>
     </row>
     <row r="1853" spans="1:1">
       <c r="A1853">
-        <v>359321</v>
+        <v>359213</v>
       </c>
     </row>
     <row r="1854" spans="1:1">
       <c r="A1854">
-        <v>360083</v>
+        <v>359321</v>
       </c>
     </row>
     <row r="1855" spans="1:1">
       <c r="A1855">
-        <v>360462</v>
+        <v>360083</v>
       </c>
     </row>
     <row r="1856" spans="1:1">
       <c r="A1856">
-        <v>361114</v>
+        <v>360462</v>
       </c>
     </row>
     <row r="1857" spans="1:1">
       <c r="A1857">
-        <v>362950</v>
+        <v>361114</v>
       </c>
     </row>
     <row r="1858" spans="1:1">
       <c r="A1858">
-        <v>363223</v>
+        <v>362950</v>
       </c>
     </row>
     <row r="1859" spans="1:1">
       <c r="A1859">
-        <v>365820</v>
+        <v>363223</v>
       </c>
     </row>
     <row r="1860" spans="1:1">
       <c r="A1860">
-        <v>366021</v>
+        <v>365820</v>
       </c>
     </row>
     <row r="1861" spans="1:1">
       <c r="A1861">
-        <v>367051</v>
+        <v>366021</v>
       </c>
     </row>
     <row r="1862" spans="1:1">
       <c r="A1862">
-        <v>368169</v>
+        <v>367051</v>
       </c>
     </row>
     <row r="1863" spans="1:1">
       <c r="A1863">
-        <v>369558</v>
+        <v>368169</v>
       </c>
     </row>
     <row r="1864" spans="1:1">
       <c r="A1864">
-        <v>371977</v>
+        <v>369558</v>
       </c>
     </row>
     <row r="1865" spans="1:1">
       <c r="A1865">
-        <v>373861</v>
+        <v>371977</v>
       </c>
     </row>
     <row r="1866" spans="1:1">
       <c r="A1866">
-        <v>375752</v>
+        <v>373861</v>
       </c>
     </row>
     <row r="1867" spans="1:1">
       <c r="A1867">
-        <v>381538</v>
+        <v>375752</v>
       </c>
     </row>
     <row r="1868" spans="1:1">
       <c r="A1868">
-        <v>383325</v>
+        <v>381538</v>
       </c>
     </row>
     <row r="1869" spans="1:1">
       <c r="A1869">
-        <v>384553</v>
+        <v>383325</v>
       </c>
     </row>
     <row r="1870" spans="1:1">
       <c r="A1870">
-        <v>385578</v>
+        <v>384553</v>
       </c>
     </row>
     <row r="1871" spans="1:1">
       <c r="A1871">
-        <v>386416</v>
+        <v>385578</v>
       </c>
     </row>
     <row r="1872" spans="1:1">
       <c r="A1872">
-        <v>388661</v>
+        <v>386416</v>
       </c>
     </row>
     <row r="1873" spans="1:1">
       <c r="A1873">
-        <v>391872</v>
+        <v>388661</v>
       </c>
     </row>
     <row r="1874" spans="1:1">
       <c r="A1874">
-        <v>392450</v>
+        <v>391872</v>
       </c>
     </row>
     <row r="1875" spans="1:1">
       <c r="A1875">
-        <v>392646</v>
+        <v>392450</v>
       </c>
     </row>
     <row r="1876" spans="1:1">
       <c r="A1876">
-        <v>393122</v>
+        <v>392646</v>
       </c>
     </row>
     <row r="1877" spans="1:1">
       <c r="A1877">
-        <v>395931</v>
+        <v>393122</v>
       </c>
     </row>
     <row r="1878" spans="1:1">
       <c r="A1878">
-        <v>396469</v>
+        <v>395931</v>
       </c>
     </row>
     <row r="1879" spans="1:1">
       <c r="A1879">
-        <v>397044</v>
+        <v>396469</v>
       </c>
     </row>
     <row r="1880" spans="1:1">
       <c r="A1880">
-        <v>398418</v>
+        <v>397044</v>
       </c>
     </row>
     <row r="1881" spans="1:1">
       <c r="A1881">
-        <v>401179</v>
+        <v>398418</v>
       </c>
     </row>
     <row r="1882" spans="1:1">
       <c r="A1882">
-        <v>402893</v>
+        <v>401179</v>
       </c>
     </row>
     <row r="1883" spans="1:1">
       <c r="A1883">
-        <v>403626</v>
+        <v>402893</v>
       </c>
     </row>
     <row r="1884" spans="1:1">
       <c r="A1884">
-        <v>404237</v>
+        <v>403626</v>
       </c>
     </row>
     <row r="1885" spans="1:1">
       <c r="A1885">
-        <v>404857</v>
+        <v>404237</v>
       </c>
     </row>
     <row r="1886" spans="1:1">
       <c r="A1886">
-        <v>405203</v>
+        <v>404857</v>
       </c>
     </row>
     <row r="1887" spans="1:1">
       <c r="A1887">
-        <v>405801</v>
+        <v>405203</v>
       </c>
     </row>
     <row r="1888" spans="1:1">
       <c r="A1888">
-        <v>406072</v>
+        <v>405801</v>
       </c>
     </row>
     <row r="1889" spans="1:1">
       <c r="A1889">
-        <v>406075</v>
+        <v>406072</v>
       </c>
     </row>
     <row r="1890" spans="1:1">
       <c r="A1890">
-        <v>406241</v>
+        <v>406075</v>
       </c>
     </row>
     <row r="1891" spans="1:1">
       <c r="A1891">
-        <v>407660</v>
+        <v>406241</v>
       </c>
     </row>
     <row r="1892" spans="1:1">
       <c r="A1892">
-        <v>407661</v>
+        <v>407660</v>
       </c>
     </row>
     <row r="1893" spans="1:1">
       <c r="A1893">
-        <v>408392</v>
+        <v>407661</v>
       </c>
     </row>
     <row r="1894" spans="1:1">
       <c r="A1894">
-        <v>410559</v>
+        <v>408392</v>
       </c>
     </row>
     <row r="1895" spans="1:1">
       <c r="A1895">
-        <v>413873</v>
+        <v>410559</v>
       </c>
     </row>
     <row r="1896" spans="1:1">
       <c r="A1896">
-        <v>417387</v>
+        <v>413873</v>
       </c>
     </row>
     <row r="1897" spans="1:1">
       <c r="A1897">
-        <v>418851</v>
+        <v>417387</v>
       </c>
     </row>
     <row r="1898" spans="1:1">
       <c r="A1898">
-        <v>422861</v>
+        <v>418851</v>
       </c>
     </row>
     <row r="1899" spans="1:1">
       <c r="A1899">
-        <v>423979</v>
+        <v>422861</v>
       </c>
     </row>
     <row r="1900" spans="1:1">
       <c r="A1900">
-        <v>425265</v>
+        <v>423979</v>
       </c>
     </row>
     <row r="1901" spans="1:1">
       <c r="A1901">
-        <v>430050</v>
+        <v>425265</v>
       </c>
     </row>
     <row r="1902" spans="1:1">
       <c r="A1902">
-        <v>430785</v>
+        <v>430050</v>
       </c>
     </row>
     <row r="1903" spans="1:1">
       <c r="A1903">
-        <v>432454</v>
+        <v>430785</v>
       </c>
     </row>
     <row r="1904" spans="1:1">
       <c r="A1904">
-        <v>434129</v>
+        <v>432454</v>
       </c>
     </row>
     <row r="1905" spans="1:1">
       <c r="A1905">
-        <v>434464</v>
+        <v>434129</v>
       </c>
     </row>
     <row r="1906" spans="1:1">
       <c r="A1906">
-        <v>436663</v>
+        <v>434464</v>
       </c>
     </row>
     <row r="1907" spans="1:1">
       <c r="A1907">
-        <v>437334</v>
+        <v>436663</v>
       </c>
     </row>
     <row r="1908" spans="1:1">
       <c r="A1908">
-        <v>437491</v>
+        <v>437334</v>
       </c>
     </row>
     <row r="1909" spans="1:1">
       <c r="A1909">
-        <v>438043</v>
+        <v>437491</v>
       </c>
     </row>
     <row r="1910" spans="1:1">
       <c r="A1910">
-        <v>438742</v>
+        <v>438043</v>
       </c>
     </row>
     <row r="1911" spans="1:1">
       <c r="A1911">
-        <v>440855</v>
+        <v>438742</v>
       </c>
     </row>
     <row r="1912" spans="1:1">
       <c r="A1912">
-        <v>442840</v>
+        <v>440855</v>
       </c>
     </row>
     <row r="1913" spans="1:1">
       <c r="A1913">
-        <v>443644</v>
+        <v>442840</v>
       </c>
     </row>
     <row r="1914" spans="1:1">
       <c r="A1914">
-        <v>444959</v>
+        <v>443644</v>
       </c>
     </row>
     <row r="1915" spans="1:1">
       <c r="A1915">
-        <v>445290</v>
+        <v>444959</v>
       </c>
     </row>
     <row r="1916" spans="1:1">
       <c r="A1916">
-        <v>446618</v>
+        <v>445290</v>
       </c>
     </row>
     <row r="1917" spans="1:1">
       <c r="A1917">
-        <v>447693</v>
+        <v>446618</v>
       </c>
     </row>
     <row r="1918" spans="1:1">
       <c r="A1918">
-        <v>447815</v>
+        <v>447693</v>
       </c>
     </row>
     <row r="1919" spans="1:1">
       <c r="A1919">
-        <v>448146</v>
+        <v>447815</v>
       </c>
     </row>
     <row r="1920" spans="1:1">
       <c r="A1920">
-        <v>448522</v>
+        <v>448146</v>
       </c>
     </row>
     <row r="1921" spans="1:1">
       <c r="A1921">
-        <v>450239</v>
+        <v>448522</v>
       </c>
     </row>
     <row r="1922" spans="1:1">
       <c r="A1922">
-        <v>451002</v>
+        <v>450239</v>
       </c>
     </row>
     <row r="1923" spans="1:1">
       <c r="A1923">
-        <v>451851</v>
+        <v>451002</v>
       </c>
     </row>
     <row r="1924" spans="1:1">
       <c r="A1924">
-        <v>452285</v>
+        <v>451851</v>
       </c>
     </row>
     <row r="1925" spans="1:1">
       <c r="A1925">
-        <v>452681</v>
+        <v>452285</v>
       </c>
     </row>
     <row r="1926" spans="1:1">
       <c r="A1926">
-        <v>453516</v>
+        <v>452681</v>
       </c>
     </row>
     <row r="1927" spans="1:1">
       <c r="A1927">
-        <v>453790</v>
+        <v>453516</v>
       </c>
     </row>
     <row r="1928" spans="1:1">
       <c r="A1928">
-        <v>453963</v>
+        <v>453790</v>
       </c>
     </row>
     <row r="1929" spans="1:1">
       <c r="A1929">
-        <v>454300</v>
+        <v>453963</v>
       </c>
     </row>
     <row r="1930" spans="1:1">
       <c r="A1930">
-        <v>454739</v>
+        <v>454300</v>
       </c>
     </row>
     <row r="1931" spans="1:1">
       <c r="A1931">
-        <v>455907</v>
+        <v>454739</v>
       </c>
     </row>
     <row r="1932" spans="1:1">
       <c r="A1932">
-        <v>457555</v>
+        <v>455907</v>
       </c>
     </row>
     <row r="1933" spans="1:1">
       <c r="A1933">
-        <v>458158</v>
+        <v>457555</v>
       </c>
     </row>
     <row r="1934" spans="1:1">
       <c r="A1934">
-        <v>462244</v>
+        <v>458158</v>
       </c>
     </row>
     <row r="1935" spans="1:1">
       <c r="A1935">
-        <v>462346</v>
+        <v>462244</v>
       </c>
     </row>
     <row r="1936" spans="1:1">
       <c r="A1936">
-        <v>464063</v>
+        <v>462346</v>
       </c>
     </row>
     <row r="1937" spans="1:1">
       <c r="A1937">
-        <v>464751</v>
+        <v>464063</v>
       </c>
     </row>
     <row r="1938" spans="1:1">
       <c r="A1938">
-        <v>466170</v>
+        <v>464751</v>
       </c>
     </row>
     <row r="1939" spans="1:1">
       <c r="A1939">
-        <v>466544</v>
+        <v>466170</v>
       </c>
     </row>
     <row r="1940" spans="1:1">
       <c r="A1940">
-        <v>467102</v>
+        <v>466544</v>
       </c>
     </row>
     <row r="1941" spans="1:1">
       <c r="A1941">
-        <v>468511</v>
+        <v>467102</v>
       </c>
     </row>
     <row r="1942" spans="1:1">
       <c r="A1942">
-        <v>469445</v>
+        <v>468511</v>
       </c>
     </row>
     <row r="1943" spans="1:1">
       <c r="A1943">
-        <v>469693</v>
+        <v>469445</v>
       </c>
     </row>
     <row r="1944" spans="1:1">
       <c r="A1944">
-        <v>475299</v>
+        <v>469693</v>
       </c>
     </row>
     <row r="1945" spans="1:1">
       <c r="A1945">
-        <v>478980</v>
+        <v>475299</v>
       </c>
     </row>
     <row r="1946" spans="1:1">
       <c r="A1946">
-        <v>481682</v>
+        <v>478980</v>
       </c>
     </row>
     <row r="1947" spans="1:1">
       <c r="A1947">
-        <v>484744</v>
+        <v>481682</v>
       </c>
     </row>
     <row r="1948" spans="1:1">
       <c r="A1948">
-        <v>484850</v>
+        <v>484744</v>
       </c>
     </row>
     <row r="1949" spans="1:1">
       <c r="A1949">
-        <v>485609</v>
+        <v>484850</v>
       </c>
     </row>
     <row r="1950" spans="1:1">
       <c r="A1950">
-        <v>486016</v>
+        <v>485609</v>
       </c>
     </row>
     <row r="1951" spans="1:1">
       <c r="A1951">
-        <v>489945</v>
+        <v>486016</v>
       </c>
     </row>
     <row r="1952" spans="1:1">
       <c r="A1952">
-        <v>491526</v>
+        <v>489945</v>
       </c>
     </row>
     <row r="1953" spans="1:1">
       <c r="A1953">
-        <v>492095</v>
+        <v>491526</v>
       </c>
     </row>
     <row r="1954" spans="1:1">
       <c r="A1954">
-        <v>493320</v>
+        <v>492095</v>
       </c>
     </row>
     <row r="1955" spans="1:1">
       <c r="A1955">
-        <v>494475</v>
+        <v>493320</v>
       </c>
     </row>
     <row r="1956" spans="1:1">
       <c r="A1956">
-        <v>496833</v>
+        <v>494475</v>
       </c>
     </row>
     <row r="1957" spans="1:1">
       <c r="A1957">
-        <v>499159</v>
+        <v>496833</v>
       </c>
     </row>
     <row r="1958" spans="1:1">
       <c r="A1958">
-        <v>499475</v>
+        <v>499159</v>
       </c>
     </row>
     <row r="1959" spans="1:1">
       <c r="A1959">
-        <v>505513</v>
+        <v>499475</v>
       </c>
     </row>
     <row r="1960" spans="1:1">
       <c r="A1960">
-        <v>506573</v>
+        <v>505513</v>
       </c>
     </row>
     <row r="1961" spans="1:1">
       <c r="A1961">
-        <v>508267</v>
+        <v>506573</v>
       </c>
     </row>
     <row r="1962" spans="1:1">
       <c r="A1962">
-        <v>509288</v>
+        <v>508267</v>
       </c>
     </row>
     <row r="1963" spans="1:1">
       <c r="A1963">
-        <v>511535</v>
+        <v>509288</v>
       </c>
     </row>
     <row r="1964" spans="1:1">
       <c r="A1964">
-        <v>514499</v>
+        <v>511535</v>
       </c>
     </row>
     <row r="1965" spans="1:1">
       <c r="A1965">
-        <v>515528</v>
+        <v>514499</v>
       </c>
     </row>
     <row r="1966" spans="1:1">
       <c r="A1966">
-        <v>517077</v>
+        <v>515528</v>
       </c>
     </row>
     <row r="1967" spans="1:1">
       <c r="A1967">
-        <v>522202</v>
+        <v>517077</v>
       </c>
     </row>
     <row r="1968" spans="1:1">
       <c r="A1968">
-        <v>522754</v>
+        <v>522202</v>
       </c>
     </row>
     <row r="1969" spans="1:1">
       <c r="A1969">
-        <v>522804</v>
+        <v>522754</v>
       </c>
     </row>
     <row r="1970" spans="1:1">
       <c r="A1970">
-        <v>522912</v>
+        <v>522804</v>
       </c>
     </row>
     <row r="1971" spans="1:1">
       <c r="A1971">
-        <v>522983</v>
+        <v>522912</v>
       </c>
     </row>
     <row r="1972" spans="1:1">
       <c r="A1972">
-        <v>523212</v>
+        <v>522983</v>
       </c>
     </row>
     <row r="1973" spans="1:1">
       <c r="A1973">
-        <v>524408</v>
+        <v>523212</v>
       </c>
     </row>
     <row r="1974" spans="1:1">
       <c r="A1974">
-        <v>526006</v>
+        <v>524408</v>
       </c>
     </row>
     <row r="1975" spans="1:1">
       <c r="A1975">
-        <v>526069</v>
+        <v>526006</v>
       </c>
     </row>
     <row r="1976" spans="1:1">
       <c r="A1976">
-        <v>526535</v>
+        <v>526069</v>
       </c>
     </row>
     <row r="1977" spans="1:1">
       <c r="A1977">
-        <v>526943</v>
+        <v>526535</v>
       </c>
     </row>
     <row r="1978" spans="1:1">
       <c r="A1978">
-        <v>527071</v>
+        <v>526943</v>
       </c>
     </row>
     <row r="1979" spans="1:1">
       <c r="A1979">
-        <v>529387</v>
+        <v>527071</v>
       </c>
     </row>
     <row r="1980" spans="1:1">
       <c r="A1980">
-        <v>530210</v>
+        <v>529387</v>
       </c>
     </row>
     <row r="1981" spans="1:1">
       <c r="A1981">
-        <v>534572</v>
+        <v>530210</v>
       </c>
     </row>
     <row r="1982" spans="1:1">
       <c r="A1982">
-        <v>535207</v>
+        <v>534572</v>
       </c>
     </row>
     <row r="1983" spans="1:1">
       <c r="A1983">
-        <v>536624</v>
+        <v>535207</v>
       </c>
     </row>
     <row r="1984" spans="1:1">
       <c r="A1984">
-        <v>536734</v>
+        <v>536624</v>
       </c>
     </row>
     <row r="1985" spans="1:1">
       <c r="A1985">
-        <v>537615</v>
+        <v>536734</v>
       </c>
     </row>
     <row r="1986" spans="1:1">
       <c r="A1986">
-        <v>537715</v>
+        <v>537615</v>
       </c>
     </row>
     <row r="1987" spans="1:1">
       <c r="A1987">
-        <v>538463</v>
+        <v>537715</v>
       </c>
     </row>
     <row r="1988" spans="1:1">
       <c r="A1988">
-        <v>539321</v>
+        <v>538463</v>
       </c>
     </row>
     <row r="1989" spans="1:1">
       <c r="A1989">
-        <v>544390</v>
+        <v>539321</v>
       </c>
     </row>
     <row r="1990" spans="1:1">
       <c r="A1990">
-        <v>548770</v>
+        <v>544390</v>
       </c>
     </row>
     <row r="1991" spans="1:1">
       <c r="A1991">
-        <v>551354</v>
+        <v>548770</v>
       </c>
     </row>
     <row r="1992" spans="1:1">
       <c r="A1992">
-        <v>551355</v>
+        <v>551354</v>
       </c>
     </row>
     <row r="1993" spans="1:1">
       <c r="A1993">
-        <v>552574</v>
+        <v>551355</v>
       </c>
     </row>
     <row r="1994" spans="1:1">
       <c r="A1994">
-        <v>554495</v>
+        <v>552574</v>
       </c>
     </row>
     <row r="1995" spans="1:1">
       <c r="A1995">
-        <v>554888</v>
+        <v>554495</v>
       </c>
     </row>
     <row r="1996" spans="1:1">
       <c r="A1996">
-        <v>555068</v>
+        <v>554888</v>
       </c>
     </row>
     <row r="1997" spans="1:1">
       <c r="A1997">
-        <v>556277</v>
+        <v>555068</v>
       </c>
     </row>
     <row r="1998" spans="1:1">
       <c r="A1998">
-        <v>556390</v>
+        <v>556277</v>
       </c>
     </row>
     <row r="1999" spans="1:1">
       <c r="A1999">
-        <v>557787</v>
+        <v>556390</v>
       </c>
     </row>
     <row r="2000" spans="1:1">
       <c r="A2000">
-        <v>558077</v>
+        <v>557787</v>
       </c>
     </row>
     <row r="2001" spans="1:1">
       <c r="A2001">
-        <v>561719</v>
+        <v>558077</v>
       </c>
     </row>
     <row r="2002" spans="1:1">
       <c r="A2002">
-        <v>564005</v>
+        <v>561719</v>
       </c>
     </row>
     <row r="2003" spans="1:1">
       <c r="A2003">
-        <v>565196</v>
+        <v>564005</v>
       </c>
     </row>
     <row r="2004" spans="1:1">
       <c r="A2004">
-        <v>566419</v>
+        <v>565196</v>
       </c>
     </row>
     <row r="2005" spans="1:1">
       <c r="A2005">
-        <v>566712</v>
+        <v>566419</v>
       </c>
     </row>
     <row r="2006" spans="1:1">
       <c r="A2006">
-        <v>566963</v>
+        <v>566712</v>
       </c>
     </row>
     <row r="2007" spans="1:1">
       <c r="A2007">
-        <v>567816</v>
+        <v>566963</v>
       </c>
     </row>
     <row r="2008" spans="1:1">
       <c r="A2008">
-        <v>568011</v>
+        <v>567816</v>
       </c>
     </row>
     <row r="2009" spans="1:1">
       <c r="A2009">
-        <v>569992</v>
+        <v>568011</v>
       </c>
     </row>
     <row r="2010" spans="1:1">
       <c r="A2010">
-        <v>570119</v>
+        <v>569992</v>
       </c>
     </row>
     <row r="2011" spans="1:1">
       <c r="A2011">
-        <v>570265</v>
+        <v>570119</v>
       </c>
     </row>
     <row r="2012" spans="1:1">
       <c r="A2012">
-        <v>570531</v>
+        <v>570265</v>
       </c>
     </row>
     <row r="2013" spans="1:1">
       <c r="A2013">
-        <v>571714</v>
+        <v>570531</v>
       </c>
     </row>
     <row r="2014" spans="1:1">
       <c r="A2014">
-        <v>577637</v>
+        <v>571714</v>
       </c>
     </row>
     <row r="2015" spans="1:1">
       <c r="A2015">
-        <v>579280</v>
+        <v>577637</v>
       </c>
     </row>
     <row r="2016" spans="1:1">
       <c r="A2016">
-        <v>581272</v>
+        <v>579280</v>
       </c>
     </row>
     <row r="2017" spans="1:1">
       <c r="A2017">
-        <v>581875</v>
+        <v>581272</v>
       </c>
     </row>
     <row r="2018" spans="1:1">
       <c r="A2018">
-        <v>583700</v>
+        <v>581875</v>
       </c>
     </row>
     <row r="2019" spans="1:1">
       <c r="A2019">
-        <v>584780</v>
+        <v>583700</v>
       </c>
     </row>
     <row r="2020" spans="1:1">
       <c r="A2020">
-        <v>586768</v>
+        <v>584780</v>
       </c>
     </row>
     <row r="2021" spans="1:1">
       <c r="A2021">
-        <v>586923</v>
+        <v>586768</v>
       </c>
     </row>
     <row r="2022" spans="1:1">
       <c r="A2022">
-        <v>588745</v>
+        <v>586923</v>
       </c>
     </row>
     <row r="2023" spans="1:1">
       <c r="A2023">
-        <v>590174</v>
+        <v>588745</v>
       </c>
     </row>
     <row r="2024" spans="1:1">
       <c r="A2024">
-        <v>592422</v>
+        <v>590174</v>
       </c>
     </row>
     <row r="2025" spans="1:1">
       <c r="A2025">
-        <v>593908</v>
+        <v>592422</v>
       </c>
     </row>
     <row r="2026" spans="1:1">
       <c r="A2026">
-        <v>596649</v>
+        <v>593908</v>
       </c>
     </row>
     <row r="2027" spans="1:1">
       <c r="A2027">
-        <v>601125</v>
+        <v>596649</v>
       </c>
     </row>
     <row r="2028" spans="1:1">
       <c r="A2028">
-        <v>602653</v>
+        <v>601125</v>
       </c>
     </row>
     <row r="2029" spans="1:1">
       <c r="A2029">
-        <v>602845</v>
+        <v>602653</v>
       </c>
     </row>
     <row r="2030" spans="1:1">
       <c r="A2030">
-        <v>604880</v>
+        <v>602845</v>
       </c>
     </row>
     <row r="2031" spans="1:1">
       <c r="A2031">
-        <v>605721</v>
+        <v>604880</v>
       </c>
     </row>
     <row r="2032" spans="1:1">
       <c r="A2032">
-        <v>606483</v>
+        <v>605721</v>
       </c>
     </row>
     <row r="2033" spans="1:1">
       <c r="A2033">
-        <v>614075</v>
+        <v>606483</v>
       </c>
     </row>
     <row r="2034" spans="1:1">
       <c r="A2034">
-        <v>617659</v>
+        <v>614075</v>
       </c>
     </row>
     <row r="2035" spans="1:1">
       <c r="A2035">
-        <v>621121</v>
+        <v>617659</v>
       </c>
     </row>
     <row r="2036" spans="1:1">
       <c r="A2036">
-        <v>621726</v>
+        <v>621121</v>
       </c>
     </row>
     <row r="2037" spans="1:1">
       <c r="A2037">
-        <v>622646</v>
+        <v>621726</v>
       </c>
     </row>
     <row r="2038" spans="1:1">
       <c r="A2038">
-        <v>623051</v>
+        <v>622646</v>
       </c>
     </row>
     <row r="2039" spans="1:1">
       <c r="A2039">
-        <v>625208</v>
+        <v>623051</v>
       </c>
     </row>
     <row r="2040" spans="1:1">
       <c r="A2040">
-        <v>627197</v>
+        <v>625208</v>
       </c>
     </row>
     <row r="2041" spans="1:1">
       <c r="A2041">
-        <v>630232</v>
+        <v>627197</v>
       </c>
     </row>
     <row r="2042" spans="1:1">
       <c r="A2042">
-        <v>630243</v>
+        <v>630232</v>
       </c>
     </row>
     <row r="2043" spans="1:1">
       <c r="A2043">
-        <v>638784</v>
+        <v>630243</v>
       </c>
     </row>
     <row r="2044" spans="1:1">
       <c r="A2044">
-        <v>642306</v>
+        <v>638784</v>
       </c>
     </row>
     <row r="2045" spans="1:1">
       <c r="A2045">
-        <v>642619</v>
+        <v>642306</v>
       </c>
     </row>
     <row r="2046" spans="1:1">
       <c r="A2046">
-        <v>645062</v>
+        <v>642619</v>
       </c>
     </row>
     <row r="2047" spans="1:1">
       <c r="A2047">
-        <v>647845</v>
+        <v>645062</v>
       </c>
     </row>
     <row r="2048" spans="1:1">
       <c r="A2048">
-        <v>650224</v>
+        <v>647845</v>
       </c>
     </row>
     <row r="2049" spans="1:1">
       <c r="A2049">
-        <v>650284</v>
+        <v>650224</v>
       </c>
     </row>
     <row r="2050" spans="1:1">
       <c r="A2050">
-        <v>650700</v>
+        <v>650284</v>
       </c>
     </row>
     <row r="2051" spans="1:1">
       <c r="A2051">
-        <v>652628</v>
+        <v>650700</v>
       </c>
     </row>
     <row r="2052" spans="1:1">
       <c r="A2052">
-        <v>653165</v>
+        <v>652628</v>
       </c>
     </row>
     <row r="2053" spans="1:1">
       <c r="A2053">
-        <v>653380</v>
+        <v>653165</v>
       </c>
     </row>
     <row r="2054" spans="1:1">
       <c r="A2054">
-        <v>667177</v>
+        <v>653380</v>
       </c>
     </row>
     <row r="2055" spans="1:1">
       <c r="A2055">
-        <v>668487</v>
+        <v>667177</v>
       </c>
     </row>
     <row r="2056" spans="1:1">
       <c r="A2056">
-        <v>671475</v>
+        <v>668487</v>
       </c>
     </row>
     <row r="2057" spans="1:1">
       <c r="A2057">
-        <v>671746</v>
+        <v>671475</v>
       </c>
     </row>
     <row r="2058" spans="1:1">
       <c r="A2058">
-        <v>672839</v>
+        <v>671746</v>
       </c>
     </row>
     <row r="2059" spans="1:1">
       <c r="A2059">
-        <v>673757</v>
+        <v>672839</v>
       </c>
     </row>
     <row r="2060" spans="1:1">
       <c r="A2060">
-        <v>674437</v>
+        <v>673757</v>
       </c>
     </row>
     <row r="2061" spans="1:1">
       <c r="A2061">
-        <v>675596</v>
+        <v>674437</v>
       </c>
     </row>
     <row r="2062" spans="1:1">
       <c r="A2062">
-        <v>676211</v>
+        <v>675596</v>
       </c>
     </row>
     <row r="2063" spans="1:1">
       <c r="A2063">
-        <v>676675</v>
+        <v>676211</v>
       </c>
     </row>
     <row r="2064" spans="1:1">
       <c r="A2064">
-        <v>679374</v>
+        <v>676675</v>
       </c>
     </row>
     <row r="2065" spans="1:1">
       <c r="A2065">
-        <v>681770</v>
+        <v>679374</v>
       </c>
     </row>
     <row r="2066" spans="1:1">
       <c r="A2066">
-        <v>684106</v>
+        <v>681770</v>
       </c>
     </row>
     <row r="2067" spans="1:1">
       <c r="A2067">
-        <v>684692</v>
+        <v>684106</v>
       </c>
     </row>
     <row r="2068" spans="1:1">
       <c r="A2068">
-        <v>686018</v>
+        <v>684692</v>
       </c>
     </row>
     <row r="2069" spans="1:1">
       <c r="A2069">
-        <v>686032</v>
+        <v>686018</v>
       </c>
     </row>
     <row r="2070" spans="1:1">
       <c r="A2070">
-        <v>686541</v>
+        <v>686032</v>
       </c>
     </row>
     <row r="2071" spans="1:1">
       <c r="A2071">
-        <v>687216</v>
+        <v>686541</v>
       </c>
     </row>
     <row r="2072" spans="1:1">
       <c r="A2072">
-        <v>687745</v>
+        <v>687216</v>
       </c>
     </row>
     <row r="2073" spans="1:1">
       <c r="A2073">
-        <v>687799</v>
+        <v>687745</v>
       </c>
     </row>
     <row r="2074" spans="1:1">
       <c r="A2074">
-        <v>691113</v>
+        <v>687799</v>
       </c>
     </row>
     <row r="2075" spans="1:1">
       <c r="A2075">
-        <v>695263</v>
+        <v>691113</v>
       </c>
     </row>
     <row r="2076" spans="1:1">
       <c r="A2076">
-        <v>696649</v>
+        <v>695263</v>
       </c>
     </row>
     <row r="2077" spans="1:1">
       <c r="A2077">
-        <v>700049</v>
+        <v>696649</v>
       </c>
     </row>
     <row r="2078" spans="1:1">
       <c r="A2078">
-        <v>704834</v>
+        <v>700049</v>
       </c>
     </row>
     <row r="2079" spans="1:1">
       <c r="A2079">
-        <v>709846</v>
+        <v>704834</v>
       </c>
     </row>
     <row r="2080" spans="1:1">
       <c r="A2080">
-        <v>709962</v>
+        <v>709846</v>
       </c>
     </row>
     <row r="2081" spans="1:1">
       <c r="A2081">
-        <v>711385</v>
+        <v>709962</v>
       </c>
     </row>
     <row r="2082" spans="1:1">
       <c r="A2082">
-        <v>712875</v>
+        <v>711385</v>
       </c>
     </row>
     <row r="2083" spans="1:1">
       <c r="A2083">
-        <v>718630</v>
+        <v>712875</v>
       </c>
     </row>
     <row r="2084" spans="1:1">
       <c r="A2084">
-        <v>719061</v>
+        <v>718630</v>
       </c>
     </row>
     <row r="2085" spans="1:1">
       <c r="A2085">
-        <v>720145</v>
+        <v>719061</v>
       </c>
     </row>
     <row r="2086" spans="1:1">
       <c r="A2086">
-        <v>725888</v>
+        <v>720145</v>
       </c>
     </row>
     <row r="2087" spans="1:1">
       <c r="A2087">
-        <v>731280</v>
+        <v>725888</v>
       </c>
     </row>
     <row r="2088" spans="1:1">
       <c r="A2088">
-        <v>731377</v>
+        <v>731280</v>
       </c>
     </row>
     <row r="2089" spans="1:1">
       <c r="A2089">
-        <v>731732</v>
+        <v>731377</v>
       </c>
     </row>
     <row r="2090" spans="1:1">
       <c r="A2090">
-        <v>732204</v>
+        <v>731732</v>
       </c>
     </row>
     <row r="2091" spans="1:1">
       <c r="A2091">
-        <v>732257</v>
+        <v>732204</v>
       </c>
     </row>
     <row r="2092" spans="1:1">
       <c r="A2092">
-        <v>733692</v>
+        <v>732257</v>
       </c>
     </row>
     <row r="2093" spans="1:1">
       <c r="A2093">
-        <v>733831</v>
+        <v>733692</v>
       </c>
     </row>
     <row r="2094" spans="1:1">
       <c r="A2094">
-        <v>734113</v>
+        <v>733831</v>
       </c>
     </row>
     <row r="2095" spans="1:1">
       <c r="A2095">
-        <v>734166</v>
+        <v>734113</v>
       </c>
     </row>
     <row r="2096" spans="1:1">
       <c r="A2096">
-        <v>734333</v>
+        <v>734166</v>
       </c>
     </row>
     <row r="2097" spans="1:1">
       <c r="A2097">
-        <v>734589</v>
+        <v>734333</v>
       </c>
     </row>
     <row r="2098" spans="1:1">
       <c r="A2098">
-        <v>735467</v>
+        <v>734589</v>
       </c>
     </row>
     <row r="2099" spans="1:1">
       <c r="A2099">
-        <v>737453</v>
+        <v>735467</v>
       </c>
     </row>
     <row r="2100" spans="1:1">
       <c r="A2100">
-        <v>737527</v>
+        <v>737453</v>
       </c>
     </row>
     <row r="2101" spans="1:1">
       <c r="A2101">
-        <v>738404</v>
+        <v>737527</v>
       </c>
     </row>
     <row r="2102" spans="1:1">
       <c r="A2102">
-        <v>738479</v>
+        <v>738404</v>
       </c>
     </row>
     <row r="2103" spans="1:1">
       <c r="A2103">
-        <v>738901</v>
+        <v>738479</v>
       </c>
     </row>
     <row r="2104" spans="1:1">
       <c r="A2104">
-        <v>738945</v>
+        <v>738901</v>
       </c>
     </row>
     <row r="2105" spans="1:1">
       <c r="A2105">
-        <v>739503</v>
+        <v>738945</v>
       </c>
     </row>
     <row r="2106" spans="1:1">
       <c r="A2106">
-        <v>740083</v>
+        <v>739503</v>
       </c>
     </row>
     <row r="2107" spans="1:1">
       <c r="A2107">
-        <v>740576</v>
+        <v>740083</v>
       </c>
     </row>
     <row r="2108" spans="1:1">
       <c r="A2108">
-        <v>741199</v>
+        <v>740576</v>
       </c>
     </row>
     <row r="2109" spans="1:1">
       <c r="A2109">
-        <v>741378</v>
+        <v>741199</v>
       </c>
     </row>
     <row r="2110" spans="1:1">
       <c r="A2110">
-        <v>741963</v>
+        <v>741378</v>
       </c>
     </row>
     <row r="2111" spans="1:1">
       <c r="A2111">
-        <v>742604</v>
+        <v>741963</v>
       </c>
     </row>
     <row r="2112" spans="1:1">
       <c r="A2112">
-        <v>743246</v>
+        <v>742604</v>
       </c>
     </row>
     <row r="2113" spans="1:1">
       <c r="A2113">
-        <v>743281</v>
+        <v>743246</v>
       </c>
     </row>
     <row r="2114" spans="1:1">
       <c r="A2114">
-        <v>743466</v>
+        <v>743281</v>
       </c>
     </row>
     <row r="2115" spans="1:1">
       <c r="A2115">
-        <v>743845</v>
+        <v>743466</v>
       </c>
     </row>
     <row r="2116" spans="1:1">
       <c r="A2116">
-        <v>743859</v>
+        <v>743845</v>
       </c>
     </row>
     <row r="2117" spans="1:1">
       <c r="A2117">
-        <v>743916</v>
+        <v>743859</v>
       </c>
     </row>
     <row r="2118" spans="1:1">
       <c r="A2118">
-        <v>745643</v>
+        <v>743916</v>
       </c>
     </row>
     <row r="2119" spans="1:1">
       <c r="A2119">
-        <v>745763</v>
+        <v>745643</v>
       </c>
     </row>
     <row r="2120" spans="1:1">
       <c r="A2120">
-        <v>745998</v>
+        <v>745763</v>
       </c>
     </row>
     <row r="2121" spans="1:1">
       <c r="A2121">
-        <v>746239</v>
+        <v>745998</v>
       </c>
     </row>
     <row r="2122" spans="1:1">
       <c r="A2122">
-        <v>749257</v>
+        <v>746239</v>
       </c>
     </row>
     <row r="2123" spans="1:1">
       <c r="A2123">
-        <v>749877</v>
+        <v>749257</v>
       </c>
     </row>
     <row r="2124" spans="1:1">
       <c r="A2124">
-        <v>751481</v>
+        <v>749877</v>
       </c>
     </row>
     <row r="2125" spans="1:1">
       <c r="A2125">
-        <v>751537</v>
+        <v>751481</v>
       </c>
     </row>
     <row r="2126" spans="1:1">
       <c r="A2126">
-        <v>751641</v>
+        <v>751537</v>
       </c>
     </row>
     <row r="2127" spans="1:1">
       <c r="A2127">
-        <v>752041</v>
+        <v>751641</v>
       </c>
     </row>
     <row r="2128" spans="1:1">
       <c r="A2128">
-        <v>752215</v>
+        <v>752041</v>
       </c>
     </row>
     <row r="2129" spans="1:1">
       <c r="A2129">
-        <v>752490</v>
+        <v>752215</v>
       </c>
     </row>
     <row r="2130" spans="1:1">
       <c r="A2130">
-        <v>752629</v>
+        <v>752490</v>
       </c>
     </row>
     <row r="2131" spans="1:1">
       <c r="A2131">
-        <v>752852</v>
+        <v>752629</v>
       </c>
     </row>
     <row r="2132" spans="1:1">
       <c r="A2132">
-        <v>753087</v>
+        <v>752852</v>
       </c>
     </row>
     <row r="2133" spans="1:1">
       <c r="A2133">
-        <v>753139</v>
+        <v>753087</v>
       </c>
     </row>
     <row r="2134" spans="1:1">
       <c r="A2134">
-        <v>753459</v>
+        <v>753139</v>
       </c>
     </row>
     <row r="2135" spans="1:1">
       <c r="A2135">
-        <v>753565</v>
+        <v>753459</v>
       </c>
     </row>
     <row r="2136" spans="1:1">
       <c r="A2136">
-        <v>754349</v>
+        <v>753565</v>
       </c>
     </row>
     <row r="2137" spans="1:1">
       <c r="A2137">
-        <v>754656</v>
+        <v>754349</v>
       </c>
     </row>
     <row r="2138" spans="1:1">
       <c r="A2138">
-        <v>754832</v>
+        <v>754656</v>
       </c>
     </row>
     <row r="2139" spans="1:1">
       <c r="A2139">
-        <v>754837</v>
+        <v>754832</v>
       </c>
     </row>
     <row r="2140" spans="1:1">
       <c r="A2140">
-        <v>755027</v>
+        <v>754837</v>
       </c>
     </row>
     <row r="2141" spans="1:1">
       <c r="A2141">
-        <v>755101</v>
+        <v>755027</v>
       </c>
     </row>
     <row r="2142" spans="1:1">
       <c r="A2142">
-        <v>755105</v>
+        <v>755101</v>
       </c>
     </row>
     <row r="2143" spans="1:1">
       <c r="A2143">
-        <v>755110</v>
+        <v>755105</v>
       </c>
     </row>
     <row r="2144" spans="1:1">
       <c r="A2144">
-        <v>755212</v>
+        <v>755110</v>
       </c>
     </row>
     <row r="2145" spans="1:1">
       <c r="A2145">
-        <v>755225</v>
+        <v>755212</v>
       </c>
     </row>
     <row r="2146" spans="1:1">
       <c r="A2146">
-        <v>755286</v>
+        <v>755225</v>
       </c>
     </row>
     <row r="2147" spans="1:1">
       <c r="A2147">
-        <v>755563</v>
+        <v>755286</v>
       </c>
     </row>
     <row r="2148" spans="1:1">
       <c r="A2148">
-        <v>755938</v>
+        <v>755563</v>
       </c>
     </row>
     <row r="2149" spans="1:1">
       <c r="A2149">
-        <v>756050</v>
+        <v>755938</v>
       </c>
     </row>
     <row r="2150" spans="1:1">
       <c r="A2150">
-        <v>756324</v>
+        <v>756050</v>
       </c>
     </row>
     <row r="2151" spans="1:1">
       <c r="A2151">
-        <v>756339</v>
+        <v>756324</v>
       </c>
     </row>
     <row r="2152" spans="1:1">
       <c r="A2152">
-        <v>756427</v>
+        <v>756339</v>
       </c>
     </row>
     <row r="2153" spans="1:1">
       <c r="A2153">
-        <v>756525</v>
+        <v>756427</v>
       </c>
     </row>
     <row r="2154" spans="1:1">
       <c r="A2154">
-        <v>757014</v>
+        <v>756525</v>
       </c>
     </row>
     <row r="2155" spans="1:1">
       <c r="A2155">
-        <v>757091</v>
+        <v>757014</v>
       </c>
     </row>
     <row r="2156" spans="1:1">
       <c r="A2156">
-        <v>757116</v>
+        <v>757091</v>
       </c>
     </row>
     <row r="2157" spans="1:1">
       <c r="A2157">
-        <v>757176</v>
+        <v>757116</v>
       </c>
     </row>
     <row r="2158" spans="1:1">
       <c r="A2158">
-        <v>757221</v>
+        <v>757176</v>
       </c>
     </row>
     <row r="2159" spans="1:1">
       <c r="A2159">
-        <v>757452</v>
+        <v>757221</v>
       </c>
     </row>
     <row r="2160" spans="1:1">
       <c r="A2160">
-        <v>757495</v>
+        <v>757452</v>
       </c>
     </row>
     <row r="2161" spans="1:1">
       <c r="A2161">
-        <v>757955</v>
+        <v>757495</v>
       </c>
     </row>
     <row r="2162" spans="1:1">
       <c r="A2162">
-        <v>757963</v>
+        <v>757955</v>
       </c>
     </row>
     <row r="2163" spans="1:1">
       <c r="A2163">
-        <v>757969</v>
+        <v>757963</v>
       </c>
     </row>
     <row r="2164" spans="1:1">
       <c r="A2164">
-        <v>758340</v>
+        <v>757969</v>
       </c>
     </row>
     <row r="2165" spans="1:1">
       <c r="A2165">
-        <v>758752</v>
+        <v>758340</v>
       </c>
     </row>
     <row r="2166" spans="1:1">
       <c r="A2166">
-        <v>759248</v>
+        <v>758752</v>
       </c>
     </row>
     <row r="2167" spans="1:1">
       <c r="A2167">
-        <v>759249</v>
+        <v>759248</v>
       </c>
     </row>
     <row r="2168" spans="1:1">
       <c r="A2168">
-        <v>759624</v>
+        <v>759249</v>
       </c>
     </row>
     <row r="2169" spans="1:1">
       <c r="A2169">
-        <v>760093</v>
+        <v>759624</v>
       </c>
     </row>
     <row r="2170" spans="1:1">
       <c r="A2170">
-        <v>760826</v>
+        <v>760093</v>
       </c>
     </row>
     <row r="2171" spans="1:1">
       <c r="A2171">
-        <v>760947</v>
+        <v>760826</v>
       </c>
     </row>
     <row r="2172" spans="1:1">
       <c r="A2172">
-        <v>761321</v>
+        <v>760947</v>
       </c>
     </row>
     <row r="2173" spans="1:1">
       <c r="A2173">
-        <v>761343</v>
+        <v>761321</v>
       </c>
     </row>
     <row r="2174" spans="1:1">
       <c r="A2174">
-        <v>761403</v>
+        <v>761343</v>
       </c>
     </row>
     <row r="2175" spans="1:1">
       <c r="A2175">
-        <v>761773</v>
+        <v>761403</v>
       </c>
     </row>
     <row r="2176" spans="1:1">
       <c r="A2176">
-        <v>761831</v>
+        <v>761773</v>
       </c>
     </row>
     <row r="2177" spans="1:1">
       <c r="A2177">
-        <v>761882</v>
+        <v>761831</v>
       </c>
     </row>
     <row r="2178" spans="1:1">
       <c r="A2178">
-        <v>761949</v>
+        <v>761882</v>
       </c>
     </row>
     <row r="2179" spans="1:1">
       <c r="A2179">
-        <v>761960</v>
+        <v>761949</v>
       </c>
     </row>
     <row r="2180" spans="1:1">
       <c r="A2180">
-        <v>762816</v>
+        <v>761960</v>
       </c>
     </row>
     <row r="2181" spans="1:1">
       <c r="A2181">
-        <v>763134</v>
+        <v>762816</v>
       </c>
     </row>
     <row r="2182" spans="1:1">
       <c r="A2182">
-        <v>763417</v>
+        <v>763134</v>
       </c>
     </row>
     <row r="2183" spans="1:1">
       <c r="A2183">
-        <v>763452</v>
+        <v>763417</v>
       </c>
     </row>
     <row r="2184" spans="1:1">
       <c r="A2184">
-        <v>763527</v>
+        <v>763452</v>
       </c>
     </row>
     <row r="2185" spans="1:1">
       <c r="A2185">
-        <v>763602</v>
+        <v>763527</v>
       </c>
     </row>
     <row r="2186" spans="1:1">
       <c r="A2186">
-        <v>763908</v>
+        <v>763602</v>
       </c>
     </row>
     <row r="2187" spans="1:1">
       <c r="A2187">
-        <v>763941</v>
+        <v>763908</v>
       </c>
     </row>
     <row r="2188" spans="1:1">
       <c r="A2188">
-        <v>764039</v>
+        <v>763941</v>
       </c>
     </row>
     <row r="2189" spans="1:1">
       <c r="A2189">
-        <v>764140</v>
+        <v>764039</v>
       </c>
     </row>
     <row r="2190" spans="1:1">
       <c r="A2190">
-        <v>764375</v>
+        <v>764140</v>
       </c>
     </row>
     <row r="2191" spans="1:1">
       <c r="A2191">
-        <v>764442</v>
+        <v>764375</v>
       </c>
     </row>
     <row r="2192" spans="1:1">
       <c r="A2192">
-        <v>764998</v>
+        <v>764442</v>
       </c>
     </row>
     <row r="2193" spans="1:1">
       <c r="A2193">
-        <v>765177</v>
+        <v>764998</v>
       </c>
     </row>
     <row r="2194" spans="1:1">
       <c r="A2194">
-        <v>765518</v>
+        <v>765177</v>
       </c>
     </row>
     <row r="2195" spans="1:1">
       <c r="A2195">
-        <v>766814</v>
+        <v>765518</v>
       </c>
     </row>
     <row r="2196" spans="1:1">
       <c r="A2196">
-        <v>767018</v>
+        <v>766814</v>
       </c>
     </row>
     <row r="2197" spans="1:1">
       <c r="A2197">
-        <v>767326</v>
+        <v>767018</v>
       </c>
     </row>
     <row r="2198" spans="1:1">
       <c r="A2198">
-        <v>767343</v>
+        <v>767326</v>
       </c>
     </row>
     <row r="2199" spans="1:1">
       <c r="A2199">
-        <v>767443</v>
+        <v>767343</v>
       </c>
     </row>
     <row r="2200" spans="1:1">
       <c r="A2200">
-        <v>767895</v>
+        <v>767443</v>
       </c>
     </row>
     <row r="2201" spans="1:1">
       <c r="A2201">
-        <v>768726</v>
+        <v>767895</v>
       </c>
     </row>
     <row r="2202" spans="1:1">
       <c r="A2202">
-        <v>768974</v>
+        <v>768726</v>
       </c>
     </row>
     <row r="2203" spans="1:1">
       <c r="A2203">
-        <v>769003</v>
+        <v>768974</v>
       </c>
     </row>
     <row r="2204" spans="1:1">
       <c r="A2204">
-        <v>769653</v>
+        <v>769003</v>
       </c>
     </row>
     <row r="2205" spans="1:1">
       <c r="A2205">
-        <v>770149</v>
+        <v>769653</v>
       </c>
     </row>
     <row r="2206" spans="1:1">
       <c r="A2206">
-        <v>770467</v>
+        <v>770149</v>
       </c>
     </row>
     <row r="2207" spans="1:1">
       <c r="A2207">
-        <v>770700</v>
+        <v>770467</v>
       </c>
     </row>
     <row r="2208" spans="1:1">
       <c r="A2208">
-        <v>771134</v>
+        <v>770700</v>
       </c>
     </row>
     <row r="2209" spans="1:1">
       <c r="A2209">
-        <v>771229</v>
+        <v>771134</v>
       </c>
     </row>
     <row r="2210" spans="1:1">
       <c r="A2210">
-        <v>771272</v>
+        <v>771229</v>
       </c>
     </row>
     <row r="2211" spans="1:1">
       <c r="A2211">
-        <v>771349</v>
+        <v>771272</v>
       </c>
     </row>
     <row r="2212" spans="1:1">
       <c r="A2212">
-        <v>771738</v>
+        <v>771349</v>
       </c>
     </row>
     <row r="2213" spans="1:1">
       <c r="A2213">
-        <v>772105</v>
+        <v>771738</v>
       </c>
     </row>
     <row r="2214" spans="1:1">
       <c r="A2214">
-        <v>772212</v>
+        <v>772105</v>
       </c>
     </row>
     <row r="2215" spans="1:1">
       <c r="A2215">
-        <v>772854</v>
+        <v>772212</v>
       </c>
     </row>
     <row r="2216" spans="1:1">
       <c r="A2216">
-        <v>773093</v>
+        <v>772854</v>
       </c>
     </row>
     <row r="2217" spans="1:1">
       <c r="A2217">
-        <v>773570</v>
+        <v>773093</v>
       </c>
     </row>
     <row r="2218" spans="1:1">
       <c r="A2218">
-        <v>773618</v>
+        <v>773570</v>
       </c>
     </row>
     <row r="2219" spans="1:1">
       <c r="A2219">
-        <v>773945</v>
+        <v>773618</v>
       </c>
     </row>
     <row r="2220" spans="1:1">
       <c r="A2220">
-        <v>774090</v>
+        <v>773945</v>
       </c>
     </row>
     <row r="2221" spans="1:1">
       <c r="A2221">
-        <v>774100</v>
+        <v>774090</v>
       </c>
     </row>
     <row r="2222" spans="1:1">
       <c r="A2222">
-        <v>775204</v>
+        <v>774100</v>
       </c>
     </row>
     <row r="2223" spans="1:1">
       <c r="A2223">
-        <v>776972</v>
+        <v>775204</v>
       </c>
     </row>
     <row r="2224" spans="1:1">
       <c r="A2224">
-        <v>777173</v>
+        <v>776972</v>
       </c>
     </row>
     <row r="2225" spans="1:1">
       <c r="A2225">
-        <v>777412</v>
+        <v>777173</v>
       </c>
     </row>
     <row r="2226" spans="1:1">
       <c r="A2226">
-        <v>777897</v>
+        <v>777412</v>
       </c>
     </row>
     <row r="2227" spans="1:1">
       <c r="A2227">
-        <v>778648</v>
+        <v>777897</v>
       </c>
     </row>
     <row r="2228" spans="1:1">
       <c r="A2228">
-        <v>781558</v>
+        <v>778648</v>
       </c>
     </row>
     <row r="2229" spans="1:1">
       <c r="A2229">
-        <v>781985</v>
+        <v>781558</v>
       </c>
     </row>
     <row r="2230" spans="1:1">
       <c r="A2230">
-        <v>782012</v>
+        <v>781985</v>
       </c>
     </row>
     <row r="2231" spans="1:1">
       <c r="A2231">
-        <v>783148</v>
+        <v>782012</v>
       </c>
     </row>
     <row r="2232" spans="1:1">
       <c r="A2232">
-        <v>783675</v>
+        <v>783148</v>
       </c>
     </row>
     <row r="2233" spans="1:1">
       <c r="A2233">
-        <v>784206</v>
+        <v>783675</v>
       </c>
     </row>
     <row r="2234" spans="1:1">
       <c r="A2234">
-        <v>784338</v>
+        <v>784206</v>
       </c>
     </row>
     <row r="2235" spans="1:1">
       <c r="A2235">
-        <v>784371</v>
+        <v>784338</v>
       </c>
     </row>
     <row r="2236" spans="1:1">
       <c r="A2236">
-        <v>784736</v>
+        <v>784371</v>
       </c>
     </row>
     <row r="2237" spans="1:1">
       <c r="A2237">
-        <v>784738</v>
+        <v>784736</v>
       </c>
     </row>
     <row r="2238" spans="1:1">
       <c r="A2238">
-        <v>784841</v>
+        <v>784738</v>
       </c>
     </row>
     <row r="2239" spans="1:1">
       <c r="A2239">
-        <v>784846</v>
+        <v>784841</v>
       </c>
     </row>
     <row r="2240" spans="1:1">
       <c r="A2240">
-        <v>785277</v>
+        <v>784846</v>
       </c>
     </row>
     <row r="2241" spans="1:1">
       <c r="A2241">
-        <v>786831</v>
+        <v>785277</v>
       </c>
     </row>
     <row r="2242" spans="1:1">
       <c r="A2242">
-        <v>805611</v>
+        <v>786831</v>
       </c>
     </row>
     <row r="2243" spans="1:1">
       <c r="A2243">
-        <v>815894</v>
+        <v>805611</v>
       </c>
     </row>
     <row r="2244" spans="1:1">
       <c r="A2244">
-        <v>816040</v>
+        <v>815894</v>
       </c>
     </row>
     <row r="2245" spans="1:1">
       <c r="A2245">
-        <v>819111</v>
+        <v>816040</v>
       </c>
     </row>
     <row r="2246" spans="1:1">
       <c r="A2246">
-        <v>820060</v>
+        <v>819111</v>
       </c>
     </row>
     <row r="2247" spans="1:1">
       <c r="A2247">
-        <v>823458</v>
+        <v>820060</v>
       </c>
     </row>
     <row r="2248" spans="1:1">
       <c r="A2248">
-        <v>823685</v>
+        <v>823458</v>
       </c>
     </row>
     <row r="2249" spans="1:1">
       <c r="A2249">
-        <v>826887</v>
+        <v>823685</v>
       </c>
     </row>
     <row r="2250" spans="1:1">
       <c r="A2250">
-        <v>837009</v>
+        <v>826887</v>
       </c>
     </row>
     <row r="2251" spans="1:1">
       <c r="A2251">
-        <v>844189</v>
+        <v>837009</v>
       </c>
     </row>
     <row r="2252" spans="1:1">
       <c r="A2252">
-        <v>844715</v>
+        <v>844189</v>
       </c>
     </row>
     <row r="2253" spans="1:1">
       <c r="A2253">
-        <v>848706</v>
+        <v>844715</v>
       </c>
     </row>
     <row r="2254" spans="1:1">
       <c r="A2254">
-        <v>849571</v>
+        <v>848706</v>
       </c>
     </row>
     <row r="2255" spans="1:1">
       <c r="A2255">
-        <v>850048</v>
+        <v>849571</v>
       </c>
     </row>
     <row r="2256" spans="1:1">
       <c r="A2256">
-        <v>850765</v>
+        <v>850048</v>
       </c>
     </row>
     <row r="2257" spans="1:1">
       <c r="A2257">
-        <v>851681</v>
+        <v>850765</v>
       </c>
     </row>
     <row r="2258" spans="1:1">
       <c r="A2258">
-        <v>852272</v>
+        <v>851681</v>
       </c>
     </row>
     <row r="2259" spans="1:1">
       <c r="A2259">
-        <v>853665</v>
+        <v>852272</v>
       </c>
     </row>
     <row r="2260" spans="1:1">
       <c r="A2260">
-        <v>854738</v>
+        <v>853665</v>
       </c>
     </row>
     <row r="2261" spans="1:1">
       <c r="A2261">
-        <v>854899</v>
+        <v>854738</v>
       </c>
     </row>
     <row r="2262" spans="1:1">
       <c r="A2262">
-        <v>855726</v>
+        <v>854899</v>
       </c>
     </row>
     <row r="2263" spans="1:1">
       <c r="A2263">
-        <v>855785</v>
+        <v>855726</v>
       </c>
     </row>
     <row r="2264" spans="1:1">
       <c r="A2264">
-        <v>856231</v>
+        <v>855785</v>
       </c>
     </row>
     <row r="2265" spans="1:1">
       <c r="A2265">
-        <v>856253</v>
+        <v>856231</v>
       </c>
     </row>
     <row r="2266" spans="1:1">
       <c r="A2266">
-        <v>856844</v>
+        <v>856253</v>
       </c>
     </row>
     <row r="2267" spans="1:1">
       <c r="A2267">
-        <v>856856</v>
+        <v>856844</v>
       </c>
     </row>
     <row r="2268" spans="1:1">
       <c r="A2268">
-        <v>857137</v>
+        <v>856856</v>
       </c>
     </row>
     <row r="2269" spans="1:1">
       <c r="A2269">
-        <v>857255</v>
+        <v>857137</v>
       </c>
     </row>
     <row r="2270" spans="1:1">
       <c r="A2270">
-        <v>857320</v>
+        <v>857255</v>
       </c>
     </row>
     <row r="2271" spans="1:1">
       <c r="A2271">
-        <v>858411</v>
+        <v>857320</v>
       </c>
     </row>
     <row r="2272" spans="1:1">
       <c r="A2272">
-        <v>858461</v>
+        <v>858411</v>
       </c>
     </row>
     <row r="2273" spans="1:1">
       <c r="A2273">
-        <v>859017</v>
+        <v>858461</v>
       </c>
     </row>
     <row r="2274" spans="1:1">
       <c r="A2274">
-        <v>859395</v>
+        <v>859017</v>
       </c>
     </row>
     <row r="2275" spans="1:1">
       <c r="A2275">
-        <v>859496</v>
+        <v>859395</v>
       </c>
     </row>
     <row r="2276" spans="1:1">
       <c r="A2276">
-        <v>859797</v>
+        <v>859496</v>
       </c>
     </row>
     <row r="2277" spans="1:1">
       <c r="A2277">
-        <v>859893</v>
+        <v>859797</v>
       </c>
     </row>
     <row r="2278" spans="1:1">
       <c r="A2278">
-        <v>861114</v>
+        <v>859893</v>
       </c>
     </row>
     <row r="2279" spans="1:1">
       <c r="A2279">
-        <v>861257</v>
+        <v>861114</v>
       </c>
     </row>
     <row r="2280" spans="1:1">
       <c r="A2280">
-        <v>861943</v>
+        <v>861257</v>
       </c>
     </row>
     <row r="2281" spans="1:1">
       <c r="A2281">
-        <v>862272</v>
+        <v>861943</v>
       </c>
     </row>
     <row r="2282" spans="1:1">
       <c r="A2282">
-        <v>862400</v>
+        <v>862272</v>
       </c>
     </row>
     <row r="2283" spans="1:1">
       <c r="A2283">
-        <v>862533</v>
+        <v>862400</v>
       </c>
     </row>
     <row r="2284" spans="1:1">
       <c r="A2284">
-        <v>863167</v>
+        <v>862533</v>
       </c>
     </row>
     <row r="2285" spans="1:1">
       <c r="A2285">
-        <v>863712</v>
+        <v>863167</v>
       </c>
     </row>
     <row r="2286" spans="1:1">
       <c r="A2286">
-        <v>864520</v>
+        <v>863712</v>
       </c>
     </row>
     <row r="2287" spans="1:1">
       <c r="A2287">
-        <v>864572</v>
+        <v>864520</v>
       </c>
     </row>
     <row r="2288" spans="1:1">
       <c r="A2288">
-        <v>867840</v>
+        <v>864572</v>
       </c>
     </row>
     <row r="2289" spans="1:1">
       <c r="A2289">
-        <v>869648</v>
+        <v>867840</v>
       </c>
     </row>
     <row r="2290" spans="1:1">
       <c r="A2290">
-        <v>872202</v>
+        <v>869648</v>
       </c>
     </row>
     <row r="2291" spans="1:1">
       <c r="A2291">
-        <v>872789</v>
+        <v>872202</v>
       </c>
     </row>
     <row r="2292" spans="1:1">
       <c r="A2292">
-        <v>873310</v>
+        <v>872789</v>
       </c>
     </row>
     <row r="2293" spans="1:1">
       <c r="A2293">
-        <v>874089</v>
+        <v>873310</v>
       </c>
     </row>
     <row r="2294" spans="1:1">
       <c r="A2294">
-        <v>875719</v>
+        <v>874089</v>
       </c>
     </row>
     <row r="2295" spans="1:1">
       <c r="A2295">
-        <v>883133</v>
+        <v>875719</v>
       </c>
     </row>
     <row r="2296" spans="1:1">
       <c r="A2296">
-        <v>884915</v>
+        <v>883133</v>
       </c>
     </row>
     <row r="2297" spans="1:1">
       <c r="A2297">
-        <v>888314</v>
+        <v>884915</v>
       </c>
     </row>
     <row r="2298" spans="1:1">
       <c r="A2298">
-        <v>888680</v>
+        <v>888314</v>
       </c>
     </row>
     <row r="2299" spans="1:1">
       <c r="A2299">
-        <v>898442</v>
+        <v>888680</v>
       </c>
     </row>
     <row r="2300" spans="1:1">
       <c r="A2300">
-        <v>900768</v>
+        <v>898442</v>
       </c>
     </row>
     <row r="2301" spans="1:1">
       <c r="A2301">
-        <v>901244</v>
+        <v>900768</v>
       </c>
     </row>
     <row r="2302" spans="1:1">
       <c r="A2302">
-        <v>902499</v>
+        <v>901244</v>
       </c>
     </row>
     <row r="2303" spans="1:1">
       <c r="A2303">
-        <v>907498</v>
+        <v>902499</v>
       </c>
     </row>
     <row r="2304" spans="1:1">
       <c r="A2304">
-        <v>909787</v>
+        <v>907498</v>
       </c>
     </row>
     <row r="2305" spans="1:1">
       <c r="A2305">
-        <v>915540</v>
+        <v>909787</v>
       </c>
     </row>
     <row r="2306" spans="1:1">
       <c r="A2306">
-        <v>917306</v>
+        <v>915540</v>
       </c>
     </row>
     <row r="2307" spans="1:1">
       <c r="A2307">
-        <v>917582</v>
+        <v>917306</v>
       </c>
     </row>
     <row r="2308" spans="1:1">
       <c r="A2308">
-        <v>918079</v>
+        <v>917582</v>
       </c>
     </row>
     <row r="2309" spans="1:1">
       <c r="A2309">
-        <v>919564</v>
+        <v>918079</v>
       </c>
     </row>
     <row r="2310" spans="1:1">
       <c r="A2310">
-        <v>922426</v>
+        <v>919564</v>
       </c>
     </row>
     <row r="2311" spans="1:1">
       <c r="A2311">
-        <v>926156</v>
+        <v>922426</v>
       </c>
     </row>
     <row r="2312" spans="1:1">
       <c r="A2312">
-        <v>926720</v>
+        <v>926156</v>
       </c>
     </row>
     <row r="2313" spans="1:1">
       <c r="A2313">
-        <v>932737</v>
+        <v>926720</v>
       </c>
     </row>
     <row r="2314" spans="1:1">
       <c r="A2314">
-        <v>935355</v>
+        <v>932737</v>
       </c>
     </row>
     <row r="2315" spans="1:1">
       <c r="A2315">
-        <v>939092</v>
+        <v>935355</v>
       </c>
     </row>
     <row r="2316" spans="1:1">
       <c r="A2316">
-        <v>940202</v>
+        <v>939092</v>
       </c>
     </row>
     <row r="2317" spans="1:1">
       <c r="A2317">
-        <v>940656</v>
+        <v>940202</v>
       </c>
     </row>
     <row r="2318" spans="1:1">
       <c r="A2318">
-        <v>942159</v>
+        <v>940656</v>
       </c>
     </row>
     <row r="2319" spans="1:1">
       <c r="A2319">
-        <v>948609</v>
+        <v>942159</v>
       </c>
     </row>
     <row r="2320" spans="1:1">
       <c r="A2320">
-        <v>948856</v>
+        <v>948609</v>
       </c>
     </row>
     <row r="2321" spans="1:1">
       <c r="A2321">
-        <v>948965</v>
+        <v>948856</v>
       </c>
     </row>
     <row r="2322" spans="1:1">
       <c r="A2322">
-        <v>949828</v>
+        <v>948965</v>
       </c>
     </row>
     <row r="2323" spans="1:1">
       <c r="A2323">
-        <v>951738</v>
+        <v>949828</v>
       </c>
     </row>
     <row r="2324" spans="1:1">
       <c r="A2324">
-        <v>954870</v>
+        <v>951738</v>
       </c>
     </row>
     <row r="2325" spans="1:1">
       <c r="A2325">
-        <v>955106</v>
+        <v>954870</v>
       </c>
     </row>
     <row r="2326" spans="1:1">
       <c r="A2326">
-        <v>957487</v>
+        <v>955106</v>
       </c>
     </row>
     <row r="2327" spans="1:1">
       <c r="A2327">
-        <v>958019</v>
+        <v>957487</v>
       </c>
     </row>
     <row r="2328" spans="1:1">
       <c r="A2328">
-        <v>959303</v>
+        <v>958019</v>
       </c>
     </row>
     <row r="2329" spans="1:1">
       <c r="A2329">
-        <v>960274</v>
+        <v>959303</v>
       </c>
     </row>
     <row r="2330" spans="1:1">
       <c r="A2330">
-        <v>960610</v>
+        <v>960274</v>
       </c>
     </row>
     <row r="2331" spans="1:1">
       <c r="A2331">
-        <v>961773</v>
+        <v>960610</v>
       </c>
     </row>
     <row r="2332" spans="1:1">
       <c r="A2332">
-        <v>963221</v>
+        <v>961773</v>
       </c>
     </row>
     <row r="2333" spans="1:1">
       <c r="A2333">
-        <v>964858</v>
+        <v>963221</v>
       </c>
     </row>
     <row r="2334" spans="1:1">
       <c r="A2334">
+        <v>964858</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:1">
+      <c r="A2335">
         <v>967460</v>
       </c>
     </row>
